--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Ports</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>Not used</t>
   </si>
 </sst>
 </file>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +616,40 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -13,7 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="TIVA Pin OUT" sheetId="1" r:id="rId1"/>
+    <sheet name="Commands" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$14</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>Ports</t>
   </si>
@@ -68,9 +72,6 @@
     <t>AF</t>
   </si>
   <si>
-    <t>Project Use</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -95,9 +96,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>UART</t>
-  </si>
-  <si>
     <t>PrintF</t>
   </si>
   <si>
@@ -113,7 +111,112 @@
     <t>SW2</t>
   </si>
   <si>
-    <t>Not used</t>
+    <t>UART0</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>UART3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND_UP      </t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>COMMAND_ON</t>
+  </si>
+  <si>
+    <t>COMMAND_OFF</t>
+  </si>
+  <si>
+    <t>COMMAND_RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND_LEFT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND_DOWN    </t>
+  </si>
+  <si>
+    <t>Data Packet Structure</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>8 Byte Max</t>
+  </si>
+  <si>
+    <t>COMMAND_DELAY</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>RFU</t>
+  </si>
+  <si>
+    <t>Byte_H</t>
+  </si>
+  <si>
+    <t>Byte_L</t>
+  </si>
+  <si>
+    <t>milliSeconds</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This command is meant to turn the LED on board Red for x milliseconds</t>
+  </si>
+  <si>
+    <t>UltraSonic Project</t>
+  </si>
+  <si>
+    <t>Quad Copter</t>
+  </si>
+  <si>
+    <t>Pin Config</t>
   </si>
 </sst>
 </file>
@@ -129,15 +232,63 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -145,12 +296,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,226 +799,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="28">
+        <v>47</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="30">
+        <v>48</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="31">
+        <v>6</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="31">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="29">
+        <v>7</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29">
+        <v>13</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I10:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Ports</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Pin Config</t>
+  </si>
+  <si>
+    <t>TESTPOINT_0</t>
   </si>
 </sst>
 </file>
@@ -500,25 +503,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +805,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,101 +890,101 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="24">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>47</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="26">
         <v>48</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="27">
         <v>6</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>14</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="25">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="25">
         <v>13</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1016,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1167,7 +1170,7 @@
       <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1176,15 +1179,15 @@
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1197,7 +1200,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1210,7 +1213,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -1221,7 +1224,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1234,7 +1237,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1247,7 +1250,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -1258,7 +1261,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1271,7 +1274,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1284,7 +1287,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1295,7 +1298,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="27"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1308,7 +1311,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="27"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1321,7 +1324,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="27"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1332,7 +1335,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="27"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1345,7 +1348,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1358,7 +1361,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="27"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1369,7 +1372,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="27"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -1382,7 +1385,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="27"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1395,7 +1398,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="27"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
@@ -1406,7 +1409,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="27"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -1418,8 +1421,8 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="27" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1445,23 +1448,23 @@
       <c r="G26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>Ports</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>TESTPOINT_0</t>
+  </si>
+  <si>
+    <t>PWM2</t>
+  </si>
+  <si>
+    <t>PWM3</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM1 </t>
   </si>
 </sst>
 </file>
@@ -802,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,6 +1126,92 @@
       </c>
       <c r="H14" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="TIVA Pin OUT" sheetId="1" r:id="rId1"/>
-    <sheet name="Commands" sheetId="2" r:id="rId2"/>
+    <sheet name="ADXL345 Pin Out" sheetId="3" r:id="rId2"/>
+    <sheet name="ADXL345 Reg Spec" sheetId="4" r:id="rId3"/>
+    <sheet name="Commands" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$14</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>Ports</t>
   </si>
@@ -235,6 +237,75 @@
   </si>
   <si>
     <t xml:space="preserve">PWM1 </t>
+  </si>
+  <si>
+    <t>I2C use</t>
+  </si>
+  <si>
+    <t>Name on board</t>
+  </si>
+  <si>
+    <t>QuadCopter Pin</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>vdd</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>rfu</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>cs!</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>means the address is 0x53 (If we tie it to VDD we would use a different address)</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Alt Address</t>
+  </si>
+  <si>
+    <t>sdo</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>scl/sclk</t>
+  </si>
+  <si>
+    <t>scl</t>
+  </si>
+  <si>
+    <t>This selects I2C as the comm (GND means it is set for SPI)</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -820,7 +891,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,6 +1293,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="str">
+        <f>'TIVA Pin OUT'!E5</f>
+        <v>I2C Data</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="str">
+        <f>'TIVA Pin OUT'!E4</f>
+        <v>I2C CLK</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Commands" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>Ports</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Input Interrupt</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -306,6 +303,15 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>ADXL345 INT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int 1 </t>
+  </si>
+  <si>
+    <t>Input Interrupt D6</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -608,6 +614,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,385 +919,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33">
+        <v>17</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="H2" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33">
+        <v>18</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="34">
+        <v>47</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35">
+        <v>3</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="35">
+        <v>48</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="32">
+        <v>6</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="32">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="36">
+        <v>7</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36">
+        <v>13</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33">
+        <v>3</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="33">
+        <v>6</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>4</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24">
-        <v>2</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="24">
-        <v>47</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="B16" s="33">
+        <v>4</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33">
+        <v>58</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="33">
         <v>5</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33">
+        <v>57</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
-        <v>3</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="26">
-        <v>48</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="B18" s="33">
         <v>6</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="27">
-        <v>6</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="27">
-        <v>14</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="33">
         <v>7</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="25">
-        <v>13</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I14"/>
+  <autoFilter ref="A1:I15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1296,7 +1358,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,16 +1378,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1333,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1349,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1373,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,16 +1443,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,7 +1460,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="str">
+        <f>'TIVA Pin OUT'!E10</f>
+        <v>Input Interrupt D6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1406,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1414,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,16 +1499,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
       <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
         <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="str">
         <f>'TIVA Pin OUT'!E5</f>
@@ -1462,10 +1531,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
       </c>
       <c r="D15" t="str">
         <f>'TIVA Pin OUT'!E4</f>
@@ -1487,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1512,13 +1581,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1550,13 +1619,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="28" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -1567,7 +1636,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1580,7 +1649,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="6"/>
@@ -1604,7 +1673,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1617,7 +1686,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
@@ -1641,7 +1710,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1654,7 +1723,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
@@ -1678,7 +1747,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1691,7 +1760,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
@@ -1715,7 +1784,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1728,7 +1797,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
@@ -1752,7 +1821,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1765,7 +1834,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
@@ -1789,7 +1858,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1799,33 +1868,33 @@
       <c r="G25" s="16"/>
       <c r="H25" s="21"/>
       <c r="I25" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="30"/>
     </row>
@@ -1833,7 +1902,7 @@
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="20"/>

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Commands" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>Ports</t>
   </si>
@@ -305,20 +305,29 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>ADXL345 INT 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Int 1 </t>
   </si>
   <si>
     <t>Input Interrupt D6</t>
+  </si>
+  <si>
+    <t>NOT ACCESSIBLE ON TIVA BOARD</t>
+  </si>
+  <si>
+    <t>May be another pin for one of the motors…</t>
+  </si>
+  <si>
+    <t>TESTPOINT_1</t>
+  </si>
+  <si>
+    <t>ADXL345 INT 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +335,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +412,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -570,10 +615,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,6 +650,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,13 +670,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,34 +969,33 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="29" t="s">
         <v>60</v>
       </c>
       <c r="I1" t="s">
@@ -948,407 +1003,477 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="29">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29">
         <v>17</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29">
         <v>18</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D5" s="30">
         <v>47</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H5" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D6" s="31">
         <v>48</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G6" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H6" s="31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="7" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29">
+        <v>58</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="29">
+        <v>5</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29">
+        <v>57</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="29">
+        <v>7</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B11" s="28">
         <v>6</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D11" s="28">
         <v>14</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H11" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B12" s="32">
         <v>7</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D12" s="32">
         <v>13</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H12" s="32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32">
-        <v>5</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="B13" s="29">
+        <v>0</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="29">
+        <v>3</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="32" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="33">
-        <v>3</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="33">
-        <v>6</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="33">
-        <v>1</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="33">
-        <v>2</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="33">
-        <v>3</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33">
-        <v>4</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="33" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="29">
+        <v>6</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="29">
+        <v>7</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H17" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="29">
+        <v>2</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="29">
+        <v>3</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="29">
         <v>4</v>
       </c>
-      <c r="B16" s="33">
-        <v>4</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33">
-        <v>58</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="33" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="33">
-        <v>5</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33">
-        <v>57</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="33" t="s">
+      <c r="H22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="33">
-        <v>6</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="33">
-        <v>7</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I15"/>
+  <autoFilter ref="A1:I18">
+    <sortState ref="A2:I21">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1358,7 +1483,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H8" sqref="E8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,11 +1588,11 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="str">
-        <f>'TIVA Pin OUT'!E10</f>
-        <v>Input Interrupt D6</v>
+        <f>'TIVA Pin OUT'!E12</f>
+        <v>UART3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1521,8 +1646,8 @@
       <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="str">
-        <f>'TIVA Pin OUT'!E5</f>
+      <c r="D14" s="40" t="str">
+        <f>'TIVA Pin OUT'!E6</f>
         <v>I2C Data</v>
       </c>
     </row>
@@ -1536,8 +1661,8 @@
       <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="str">
-        <f>'TIVA Pin OUT'!E4</f>
+      <c r="D15" s="41" t="str">
+        <f>'TIVA Pin OUT'!E5</f>
         <v>I2C CLK</v>
       </c>
     </row>
@@ -1615,7 +1740,7 @@
       <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1624,15 +1749,15 @@
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1645,7 +1770,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1658,7 +1783,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -1669,7 +1794,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="30"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1682,7 +1807,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1695,7 +1820,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -1706,7 +1831,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1719,7 +1844,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="30"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1732,7 +1857,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1743,7 +1868,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="30"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1756,7 +1881,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1769,7 +1894,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1780,7 +1905,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1793,7 +1918,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1806,7 +1931,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1817,7 +1942,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="30"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -1830,7 +1955,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -1843,7 +1968,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
@@ -1854,7 +1979,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -1867,7 +1992,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="38" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1896,20 +2021,20 @@
       <c r="H26" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TIVA Pin OUT" sheetId="1" r:id="rId1"/>
-    <sheet name="ADXL345 Pin Out" sheetId="3" r:id="rId2"/>
-    <sheet name="ADXL345 Reg Spec" sheetId="4" r:id="rId3"/>
-    <sheet name="Commands" sheetId="2" r:id="rId4"/>
+    <sheet name="HC05 Commands" sheetId="2" r:id="rId2"/>
+    <sheet name="ADXL345 Pin Out" sheetId="3" r:id="rId3"/>
+    <sheet name="ADXL345 Reg Spec" sheetId="4" r:id="rId4"/>
+    <sheet name="Part List" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$18</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>Ports</t>
   </si>
@@ -321,6 +322,47 @@
   </si>
   <si>
     <t>ADXL345 INT 2</t>
+  </si>
+  <si>
+    <t>Hobbywing</t>
+  </si>
+  <si>
+    <t>FlyFun</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Quadcopter Use</t>
+  </si>
+  <si>
+    <t>18A, 2-4 Lipo</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>COMMAND_LEVEL</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>Sends all motors to the same level. 
+0 = Min level 
+FFFF = MAX LEVEL</t>
+  </si>
+  <si>
+    <t>%power = level/FFFF</t>
   </si>
 </sst>
 </file>
@@ -357,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +469,30 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -621,7 +687,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -658,6 +724,8 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,8 +738,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -957,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1211,7 @@
       <c r="G7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="42" t="s">
         <v>65</v>
       </c>
       <c r="I7"/>
@@ -1163,7 +1236,7 @@
       <c r="G8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="43" t="s">
         <v>65</v>
       </c>
       <c r="I8"/>
@@ -1186,7 +1259,7 @@
       <c r="G9" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="44" t="s">
         <v>65</v>
       </c>
       <c r="I9"/>
@@ -1209,7 +1282,7 @@
       <c r="G10" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="45" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1475,10 +1548,434 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="108.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I10:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -1646,7 +2143,7 @@
       <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="40" t="str">
+      <c r="D14" s="36" t="str">
         <f>'TIVA Pin OUT'!E6</f>
         <v>I2C Data</v>
       </c>
@@ -1661,7 +2158,7 @@
       <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="41" t="str">
+      <c r="D15" s="37" t="str">
         <f>'TIVA Pin OUT'!E5</f>
         <v>I2C CLK</v>
       </c>
@@ -1671,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1689,366 +2186,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="108.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7</v>
-      </c>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="38"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TIVA Pin OUT" sheetId="1" r:id="rId1"/>
     <sheet name="HC05 Commands" sheetId="2" r:id="rId2"/>
     <sheet name="ADXL345 Pin Out" sheetId="3" r:id="rId3"/>
     <sheet name="ADXL345 Reg Spec" sheetId="4" r:id="rId4"/>
-    <sheet name="Part List" sheetId="5" r:id="rId5"/>
+    <sheet name="Gyro Pinout" sheetId="6" r:id="rId5"/>
+    <sheet name="Part List" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$18</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
   <si>
     <t>Ports</t>
   </si>
@@ -132,9 +133,6 @@
     <t>UART3</t>
   </si>
   <si>
-    <t xml:space="preserve">COMMAND_UP      </t>
-  </si>
-  <si>
     <t>0x05</t>
   </si>
   <si>
@@ -150,21 +148,6 @@
     <t>0x09</t>
   </si>
   <si>
-    <t>COMMAND_ON</t>
-  </si>
-  <si>
-    <t>COMMAND_OFF</t>
-  </si>
-  <si>
-    <t>COMMAND_RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMAND_LEFT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMAND_DOWN    </t>
-  </si>
-  <si>
     <t>Data Packet Structure</t>
   </si>
   <si>
@@ -180,9 +163,6 @@
     <t>8 Byte Max</t>
   </si>
   <si>
-    <t>COMMAND_DELAY</t>
-  </si>
-  <si>
     <t>0x0B</t>
   </si>
   <si>
@@ -349,9 +329,6 @@
   </si>
   <si>
     <t>0x00</t>
-  </si>
-  <si>
-    <t>COMMAND_LEVEL</t>
   </si>
   <si>
     <t>0x0C</t>
@@ -363,6 +340,36 @@
   </si>
   <si>
     <t>%power = level/FFFF</t>
+  </si>
+  <si>
+    <t>SubCommand</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>COMMAND</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>DELAY</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>DOWN</t>
   </si>
 </sst>
 </file>
@@ -687,7 +694,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -723,28 +730,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1031,7 +1036,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,158 +1068,166 @@
         <v>2</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="29">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29">
-        <v>17</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="A2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="32">
+        <v>7</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="32">
+        <v>13</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29">
-        <v>18</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="29"/>
+      <c r="A3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="28">
+        <v>6</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="28">
+        <v>14</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="28"/>
       <c r="G3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>21</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="D4" s="29">
+        <v>17</v>
+      </c>
       <c r="E4" s="29" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29">
+        <v>18</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B6" s="30">
         <v>2</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D6" s="30">
         <v>47</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="G6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B7" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D7" s="31">
         <v>48</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="31" t="s">
+      <c r="G7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="29">
-        <v>4</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
-        <v>58</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -1228,16 +1241,16 @@
         <v>57</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="I8"/>
     </row>
@@ -1246,225 +1259,221 @@
         <v>4</v>
       </c>
       <c r="B9" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29">
+        <v>58</v>
+      </c>
       <c r="E9" s="29" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="29">
-        <v>7</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="28">
-        <v>6</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="28">
-        <v>14</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="29"/>
       <c r="G11" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="32">
-        <v>7</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="32">
-        <v>13</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="25"/>
+      <c r="A12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>94</v>
+        <v>46</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="29">
         <v>7</v>
-      </c>
-      <c r="B14" s="29">
-        <v>3</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="29"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="33">
-        <v>5</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="27"/>
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="33">
+        <v>5</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>13</v>
-      </c>
       <c r="B18" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="29" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B19" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1473,18 +1482,18 @@
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -1493,18 +1502,18 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -1513,38 +1522,36 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="D22" s="29"/>
       <c r="E22" s="29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I18">
-    <sortState ref="A2:I21">
-      <sortCondition ref="A1:A17"/>
+    <sortState ref="A2:I22">
+      <sortCondition ref="D1:D18"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,422 +1561,485 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="108.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="42"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="7"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="11"/>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="6"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="11"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="7"/>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="6"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="40"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="11"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="7"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="40"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="6"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="5"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="40"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="40"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>54</v>
+      <c r="H25" s="16"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="40"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="16"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>54</v>
+      <c r="H28" s="16"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="40"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="40"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="40"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1980,7 +2050,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="E8:H8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,16 +2070,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2025,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2033,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2041,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,16 +2135,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2082,14 +2152,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="str">
-        <f>'TIVA Pin OUT'!E12</f>
-        <v>UART3</v>
+        <v>84</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,7 +2174,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2113,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,16 +2190,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,14 +2207,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="36" t="str">
-        <f>'TIVA Pin OUT'!E6</f>
-        <v>I2C Data</v>
+        <v>79</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,14 +2221,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="37" t="str">
-        <f>'TIVA Pin OUT'!E5</f>
-        <v>I2C CLK</v>
+        <v>81</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2245,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2187,6 +2254,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2205,33 +2284,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TIVA Pin OUT" sheetId="1" r:id="rId1"/>
     <sheet name="HC05 Commands" sheetId="2" r:id="rId2"/>
     <sheet name="ADXL345 Pin Out" sheetId="3" r:id="rId3"/>
     <sheet name="ADXL345 Reg Spec" sheetId="4" r:id="rId4"/>
-    <sheet name="Gyro Pinout" sheetId="6" r:id="rId5"/>
-    <sheet name="Part List" sheetId="5" r:id="rId6"/>
+    <sheet name="Gyro L3GD20H" sheetId="7" r:id="rId5"/>
+    <sheet name="Gyro Reg Spec" sheetId="8" r:id="rId6"/>
+    <sheet name="Part List" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$18</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="145">
   <si>
     <t>Ports</t>
   </si>
@@ -370,6 +371,116 @@
   </si>
   <si>
     <t>DOWN</t>
+  </si>
+  <si>
+    <t>Pin #</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Quadcopter</t>
+  </si>
+  <si>
+    <t>VDD IO</t>
+  </si>
+  <si>
+    <t>Power Supply for IO pins</t>
+  </si>
+  <si>
+    <t>SCL
+SPC</t>
+  </si>
+  <si>
+    <t>I2C serial clock (SCL)
+SPI serial port clock (SPC)</t>
+  </si>
+  <si>
+    <t>I2C Clock</t>
+  </si>
+  <si>
+    <t>I2C serial data (SDA)
+SPI serial data input (SDI)
+3-wire interface serial data output (SDO)</t>
+  </si>
+  <si>
+    <t>SDA
+SDI
+SDO</t>
+  </si>
+  <si>
+    <t>SDO
+SA0</t>
+  </si>
+  <si>
+    <t>SPI serial data output (SDO)
+I2C less significant bit of the device address (SA0)</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>I2C/SPI mode selection (1: SPI idle mode / I2C communication
+enabled; 0: SPI communication mode / I2C disabled)</t>
+  </si>
+  <si>
+    <t>DRDY/INT2</t>
+  </si>
+  <si>
+    <t>Data ready/fifo interrupt (FIFO threshold/overrun/empty)</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Connect to GND with ceramic capacitor(3)</t>
+  </si>
+  <si>
+    <t>Programmable interrupt</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>25V 10nF</t>
+  </si>
+  <si>
+    <t>VDD (10uF cap)</t>
+  </si>
+  <si>
+    <t>Gyroscope data enable 
+(connect to ground if DEN is not used)</t>
+  </si>
+  <si>
+    <t>FIFO Bypass Mode</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>I2C Mode</t>
+  </si>
+  <si>
+    <t>Tied to GND - Address = 1101010 = 0x6A 
+(if tied to VDD address would be 0x6B)</t>
+  </si>
+  <si>
+    <t>INVALID_COMMAND</t>
+  </si>
+  <si>
+    <t>0xFF</t>
   </si>
 </sst>
 </file>
@@ -406,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +611,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -694,7 +811,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -733,6 +850,8 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -748,8 +867,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1361,7 +1502,7 @@
       <c r="G13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="39" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1403,7 +1544,7 @@
       <c r="G15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="38" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1563,13 +1704,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1614,7 +1760,7 @@
       <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1626,15 +1772,29 @@
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1650,7 +1810,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1659,14 +1819,16 @@
       <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -1678,7 +1840,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1694,7 +1856,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1703,14 +1865,16 @@
       <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -1722,7 +1886,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="39"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1738,7 +1902,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="39"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1747,14 +1911,16 @@
       <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="39"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1766,7 +1932,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="39"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1782,7 +1948,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="39"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1791,14 +1957,16 @@
       <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="39"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1810,7 +1978,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="39"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1826,7 +1994,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="39"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -1844,7 +2012,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="39"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -1856,7 +2024,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="39"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -1872,7 +2040,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="39"/>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1881,14 +2049,16 @@
       <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="39"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
@@ -1900,7 +2070,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="39"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -1916,7 +2086,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="41" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1948,21 +2118,21 @@
       <c r="I26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="39"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="39"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -1978,7 +2148,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="40" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2010,21 +2180,21 @@
       <c r="I29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="39"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="39"/>
+      <c r="J30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2255,17 +2425,290 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/Documents/PinOut.xlsx
+++ b/Documents/PinOut.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TIVA Pin OUT" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Part List" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TIVA Pin OUT'!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="157">
   <si>
     <t>Ports</t>
   </si>
@@ -481,13 +481,49 @@
   </si>
   <si>
     <t>0xFF</t>
+  </si>
+  <si>
+    <t>Input Interrupt D8</t>
+  </si>
+  <si>
+    <t>Input Interrupt D7</t>
+  </si>
+  <si>
+    <t>Gyro Data Ready</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>ADXL345</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Analog-Devices/ADXL345BCCZ-RL7/?qs=sGAEpiMZZMvwE4h8i4g3cmpdANGD53Y63DTXVT%2fcSus%3d</t>
+  </si>
+  <si>
+    <t>ADXL345BCCZ-RL7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +551,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -618,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -799,6 +847,150 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -811,7 +1003,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -851,7 +1043,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -890,6 +1081,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1174,25 +1393,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:LT24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1217,172 +1437,2420 @@
       <c r="H1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="32">
-        <v>7</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="32">
-        <v>13</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="28">
-        <v>6</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="28">
-        <v>14</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="28"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="52"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="52"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
+      <c r="BS1" s="52"/>
+      <c r="BT1" s="52"/>
+      <c r="BU1" s="52"/>
+      <c r="BV1" s="52"/>
+      <c r="BW1" s="52"/>
+      <c r="BX1" s="52"/>
+      <c r="BY1" s="52"/>
+      <c r="BZ1" s="52"/>
+      <c r="CA1" s="52"/>
+      <c r="CB1" s="52"/>
+      <c r="CC1" s="52"/>
+      <c r="CD1" s="52"/>
+      <c r="CE1" s="52"/>
+      <c r="CF1" s="52"/>
+      <c r="CG1" s="52"/>
+      <c r="CH1" s="52"/>
+      <c r="CI1" s="52"/>
+      <c r="CJ1" s="52"/>
+      <c r="CK1" s="52"/>
+      <c r="CL1" s="52"/>
+      <c r="CM1" s="52"/>
+      <c r="CN1" s="52"/>
+      <c r="CO1" s="52"/>
+      <c r="CP1" s="52"/>
+      <c r="CQ1" s="52"/>
+      <c r="CR1" s="52"/>
+      <c r="CS1" s="52"/>
+      <c r="CT1" s="52"/>
+      <c r="CU1" s="52"/>
+      <c r="CV1" s="52"/>
+      <c r="CW1" s="52"/>
+      <c r="CX1" s="52"/>
+      <c r="CY1" s="52"/>
+      <c r="CZ1" s="52"/>
+      <c r="DA1" s="52"/>
+      <c r="DB1" s="52"/>
+      <c r="DC1" s="52"/>
+      <c r="DD1" s="52"/>
+      <c r="DE1" s="52"/>
+      <c r="DF1" s="52"/>
+      <c r="DG1" s="52"/>
+      <c r="DH1" s="52"/>
+      <c r="DI1" s="52"/>
+      <c r="DJ1" s="52"/>
+      <c r="DK1" s="52"/>
+      <c r="DL1" s="52"/>
+      <c r="DM1" s="52"/>
+      <c r="DN1" s="52"/>
+      <c r="DO1" s="52"/>
+      <c r="DP1" s="52"/>
+      <c r="DQ1" s="52"/>
+      <c r="DR1" s="52"/>
+      <c r="DS1" s="52"/>
+      <c r="DT1" s="52"/>
+      <c r="DU1" s="52"/>
+      <c r="DV1" s="52"/>
+      <c r="DW1" s="52"/>
+      <c r="DX1" s="52"/>
+      <c r="DY1" s="52"/>
+      <c r="DZ1" s="52"/>
+      <c r="EA1" s="52"/>
+      <c r="EB1" s="52"/>
+      <c r="EC1" s="52"/>
+      <c r="ED1" s="52"/>
+      <c r="EE1" s="52"/>
+      <c r="EF1" s="52"/>
+      <c r="EG1" s="52"/>
+      <c r="EH1" s="52"/>
+      <c r="EI1" s="52"/>
+      <c r="EJ1" s="52"/>
+      <c r="EK1" s="52"/>
+      <c r="EL1" s="52"/>
+      <c r="EM1" s="52"/>
+      <c r="EN1" s="52"/>
+      <c r="EO1" s="52"/>
+      <c r="EP1" s="52"/>
+      <c r="EQ1" s="52"/>
+      <c r="ER1" s="52"/>
+      <c r="ES1" s="52"/>
+      <c r="ET1" s="52"/>
+      <c r="EU1" s="52"/>
+      <c r="EV1" s="52"/>
+      <c r="EW1" s="52"/>
+      <c r="EX1" s="52"/>
+      <c r="EY1" s="52"/>
+      <c r="EZ1" s="52"/>
+      <c r="FA1" s="52"/>
+      <c r="FB1" s="52"/>
+      <c r="FC1" s="52"/>
+      <c r="FD1" s="52"/>
+      <c r="FE1" s="52"/>
+      <c r="FF1" s="52"/>
+      <c r="FG1" s="52"/>
+      <c r="FH1" s="52"/>
+      <c r="FI1" s="52"/>
+      <c r="FJ1" s="52"/>
+      <c r="FK1" s="52"/>
+      <c r="FL1" s="52"/>
+      <c r="FM1" s="52"/>
+      <c r="FN1" s="52"/>
+      <c r="FO1" s="52"/>
+      <c r="FP1" s="52"/>
+      <c r="FQ1" s="52"/>
+      <c r="FR1" s="52"/>
+      <c r="FS1" s="52"/>
+      <c r="FT1" s="52"/>
+      <c r="FU1" s="52"/>
+      <c r="FV1" s="52"/>
+      <c r="FW1" s="52"/>
+      <c r="FX1" s="52"/>
+      <c r="FY1" s="52"/>
+      <c r="FZ1" s="52"/>
+      <c r="GA1" s="52"/>
+      <c r="GB1" s="52"/>
+      <c r="GC1" s="52"/>
+      <c r="GD1" s="52"/>
+      <c r="GE1" s="52"/>
+      <c r="GF1" s="52"/>
+      <c r="GG1" s="52"/>
+      <c r="GH1" s="52"/>
+      <c r="GI1" s="52"/>
+      <c r="GJ1" s="52"/>
+      <c r="GK1" s="52"/>
+      <c r="GL1" s="52"/>
+      <c r="GM1" s="52"/>
+      <c r="GN1" s="52"/>
+      <c r="GO1" s="52"/>
+      <c r="GP1" s="52"/>
+      <c r="GQ1" s="52"/>
+      <c r="GR1" s="52"/>
+      <c r="GS1" s="52"/>
+      <c r="GT1" s="52"/>
+      <c r="GU1" s="52"/>
+      <c r="GV1" s="52"/>
+      <c r="GW1" s="52"/>
+      <c r="GX1" s="52"/>
+      <c r="GY1" s="52"/>
+      <c r="GZ1" s="52"/>
+      <c r="HA1" s="52"/>
+      <c r="HB1" s="52"/>
+      <c r="HC1" s="52"/>
+      <c r="HD1" s="52"/>
+      <c r="HE1" s="52"/>
+      <c r="HF1" s="52"/>
+      <c r="HG1" s="52"/>
+      <c r="HH1" s="52"/>
+      <c r="HI1" s="52"/>
+      <c r="HJ1" s="52"/>
+      <c r="HK1" s="52"/>
+      <c r="HL1" s="52"/>
+      <c r="HM1" s="52"/>
+      <c r="HN1" s="52"/>
+      <c r="HO1" s="52"/>
+      <c r="HP1" s="52"/>
+      <c r="HQ1" s="52"/>
+      <c r="HR1" s="52"/>
+      <c r="HS1" s="52"/>
+      <c r="HT1" s="52"/>
+      <c r="HU1" s="52"/>
+      <c r="HV1" s="52"/>
+      <c r="HW1" s="52"/>
+      <c r="HX1" s="52"/>
+      <c r="HY1" s="52"/>
+      <c r="HZ1" s="52"/>
+      <c r="IA1" s="52"/>
+      <c r="IB1" s="52"/>
+      <c r="IC1" s="52"/>
+      <c r="ID1" s="52"/>
+      <c r="IE1" s="52"/>
+      <c r="IF1" s="52"/>
+      <c r="IG1" s="52"/>
+      <c r="IH1" s="52"/>
+      <c r="II1" s="52"/>
+      <c r="IJ1" s="52"/>
+      <c r="IK1" s="52"/>
+      <c r="IL1" s="52"/>
+      <c r="IM1" s="52"/>
+      <c r="IN1" s="52"/>
+      <c r="IO1" s="52"/>
+      <c r="IP1" s="52"/>
+      <c r="IQ1" s="52"/>
+      <c r="IR1" s="52"/>
+      <c r="IS1" s="52"/>
+      <c r="IT1" s="52"/>
+      <c r="IU1" s="52"/>
+      <c r="IV1" s="52"/>
+      <c r="IW1" s="52"/>
+      <c r="IX1" s="52"/>
+      <c r="IY1" s="52"/>
+      <c r="IZ1" s="52"/>
+      <c r="JA1" s="52"/>
+      <c r="JB1" s="52"/>
+      <c r="JC1" s="52"/>
+      <c r="JD1" s="52"/>
+      <c r="JE1" s="52"/>
+      <c r="JF1" s="52"/>
+      <c r="JG1" s="52"/>
+      <c r="JH1" s="52"/>
+      <c r="JI1" s="52"/>
+      <c r="JJ1" s="52"/>
+      <c r="JK1" s="52"/>
+      <c r="JL1" s="52"/>
+      <c r="JM1" s="52"/>
+      <c r="JN1" s="52"/>
+      <c r="JO1" s="52"/>
+      <c r="JP1" s="52"/>
+      <c r="JQ1" s="52"/>
+      <c r="JR1" s="52"/>
+      <c r="JS1" s="52"/>
+      <c r="JT1" s="52"/>
+      <c r="JU1" s="52"/>
+      <c r="JV1" s="52"/>
+      <c r="JW1" s="52"/>
+      <c r="JX1" s="52"/>
+      <c r="JY1" s="52"/>
+      <c r="JZ1" s="52"/>
+      <c r="KA1" s="52"/>
+      <c r="KB1" s="52"/>
+      <c r="KC1" s="52"/>
+      <c r="KD1" s="52"/>
+      <c r="KE1" s="52"/>
+      <c r="KF1" s="52"/>
+      <c r="KG1" s="52"/>
+      <c r="KH1" s="52"/>
+      <c r="KI1" s="52"/>
+      <c r="KJ1" s="52"/>
+      <c r="KK1" s="52"/>
+      <c r="KL1" s="52"/>
+      <c r="KM1" s="52"/>
+      <c r="KN1" s="52"/>
+      <c r="KO1" s="52"/>
+      <c r="KP1" s="52"/>
+      <c r="KQ1" s="52"/>
+      <c r="KR1" s="52"/>
+      <c r="KS1" s="52"/>
+      <c r="KT1" s="52"/>
+      <c r="KU1" s="52"/>
+      <c r="KV1" s="52"/>
+      <c r="KW1" s="52"/>
+      <c r="KX1" s="52"/>
+      <c r="KY1" s="52"/>
+      <c r="KZ1" s="52"/>
+      <c r="LA1" s="52"/>
+      <c r="LB1" s="52"/>
+      <c r="LC1" s="52"/>
+      <c r="LD1" s="52"/>
+      <c r="LE1" s="52"/>
+      <c r="LF1" s="52"/>
+      <c r="LG1" s="52"/>
+      <c r="LH1" s="52"/>
+      <c r="LI1" s="52"/>
+      <c r="LJ1" s="52"/>
+      <c r="LK1" s="52"/>
+      <c r="LL1" s="52"/>
+      <c r="LM1" s="52"/>
+      <c r="LN1" s="52"/>
+      <c r="LO1" s="52"/>
+      <c r="LP1" s="52"/>
+      <c r="LQ1" s="52"/>
+      <c r="LR1" s="52"/>
+      <c r="LS1" s="52"/>
+      <c r="LT1" s="52"/>
+    </row>
+    <row r="2" spans="1:332" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>17</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="52"/>
+      <c r="BV2" s="52"/>
+      <c r="BW2" s="52"/>
+      <c r="BX2" s="52"/>
+      <c r="BY2" s="52"/>
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="52"/>
+      <c r="CD2" s="52"/>
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+      <c r="CG2" s="52"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="52"/>
+      <c r="CJ2" s="52"/>
+      <c r="CK2" s="52"/>
+      <c r="CL2" s="52"/>
+      <c r="CM2" s="52"/>
+      <c r="CN2" s="52"/>
+      <c r="CO2" s="52"/>
+      <c r="CP2" s="52"/>
+      <c r="CQ2" s="52"/>
+      <c r="CR2" s="52"/>
+      <c r="CS2" s="52"/>
+      <c r="CT2" s="52"/>
+      <c r="CU2" s="52"/>
+      <c r="CV2" s="52"/>
+      <c r="CW2" s="52"/>
+      <c r="CX2" s="52"/>
+      <c r="CY2" s="52"/>
+      <c r="CZ2" s="52"/>
+      <c r="DA2" s="52"/>
+      <c r="DB2" s="52"/>
+      <c r="DC2" s="52"/>
+      <c r="DD2" s="52"/>
+      <c r="DE2" s="52"/>
+      <c r="DF2" s="52"/>
+      <c r="DG2" s="52"/>
+      <c r="DH2" s="52"/>
+      <c r="DI2" s="52"/>
+      <c r="DJ2" s="52"/>
+      <c r="DK2" s="52"/>
+      <c r="DL2" s="52"/>
+      <c r="DM2" s="52"/>
+      <c r="DN2" s="52"/>
+      <c r="DO2" s="52"/>
+      <c r="DP2" s="52"/>
+      <c r="DQ2" s="52"/>
+      <c r="DR2" s="52"/>
+      <c r="DS2" s="52"/>
+      <c r="DT2" s="52"/>
+      <c r="DU2" s="52"/>
+      <c r="DV2" s="52"/>
+      <c r="DW2" s="52"/>
+      <c r="DX2" s="52"/>
+      <c r="DY2" s="52"/>
+      <c r="DZ2" s="52"/>
+      <c r="EA2" s="52"/>
+      <c r="EB2" s="52"/>
+      <c r="EC2" s="52"/>
+      <c r="ED2" s="52"/>
+      <c r="EE2" s="52"/>
+      <c r="EF2" s="52"/>
+      <c r="EG2" s="52"/>
+      <c r="EH2" s="52"/>
+      <c r="EI2" s="52"/>
+      <c r="EJ2" s="52"/>
+      <c r="EK2" s="52"/>
+      <c r="EL2" s="52"/>
+      <c r="EM2" s="52"/>
+      <c r="EN2" s="52"/>
+      <c r="EO2" s="52"/>
+      <c r="EP2" s="52"/>
+      <c r="EQ2" s="52"/>
+      <c r="ER2" s="52"/>
+      <c r="ES2" s="52"/>
+      <c r="ET2" s="52"/>
+      <c r="EU2" s="52"/>
+      <c r="EV2" s="52"/>
+      <c r="EW2" s="52"/>
+      <c r="EX2" s="52"/>
+      <c r="EY2" s="52"/>
+      <c r="EZ2" s="52"/>
+      <c r="FA2" s="52"/>
+      <c r="FB2" s="52"/>
+      <c r="FC2" s="52"/>
+      <c r="FD2" s="52"/>
+      <c r="FE2" s="52"/>
+      <c r="FF2" s="52"/>
+      <c r="FG2" s="52"/>
+      <c r="FH2" s="52"/>
+      <c r="FI2" s="52"/>
+      <c r="FJ2" s="52"/>
+      <c r="FK2" s="52"/>
+      <c r="FL2" s="52"/>
+      <c r="FM2" s="52"/>
+      <c r="FN2" s="52"/>
+      <c r="FO2" s="52"/>
+      <c r="FP2" s="52"/>
+      <c r="FQ2" s="52"/>
+      <c r="FR2" s="52"/>
+      <c r="FS2" s="52"/>
+      <c r="FT2" s="52"/>
+      <c r="FU2" s="52"/>
+      <c r="FV2" s="52"/>
+      <c r="FW2" s="52"/>
+      <c r="FX2" s="52"/>
+      <c r="FY2" s="52"/>
+      <c r="FZ2" s="52"/>
+      <c r="GA2" s="52"/>
+      <c r="GB2" s="52"/>
+      <c r="GC2" s="52"/>
+      <c r="GD2" s="52"/>
+      <c r="GE2" s="52"/>
+      <c r="GF2" s="52"/>
+      <c r="GG2" s="52"/>
+      <c r="GH2" s="52"/>
+      <c r="GI2" s="52"/>
+      <c r="GJ2" s="52"/>
+      <c r="GK2" s="52"/>
+      <c r="GL2" s="52"/>
+      <c r="GM2" s="52"/>
+      <c r="GN2" s="52"/>
+      <c r="GO2" s="52"/>
+      <c r="GP2" s="52"/>
+      <c r="GQ2" s="52"/>
+      <c r="GR2" s="52"/>
+      <c r="GS2" s="52"/>
+      <c r="GT2" s="52"/>
+      <c r="GU2" s="52"/>
+      <c r="GV2" s="52"/>
+      <c r="GW2" s="52"/>
+      <c r="GX2" s="52"/>
+      <c r="GY2" s="52"/>
+      <c r="GZ2" s="52"/>
+      <c r="HA2" s="52"/>
+      <c r="HB2" s="52"/>
+      <c r="HC2" s="52"/>
+      <c r="HD2" s="52"/>
+      <c r="HE2" s="52"/>
+      <c r="HF2" s="52"/>
+      <c r="HG2" s="52"/>
+      <c r="HH2" s="52"/>
+      <c r="HI2" s="52"/>
+      <c r="HJ2" s="52"/>
+      <c r="HK2" s="52"/>
+      <c r="HL2" s="52"/>
+      <c r="HM2" s="52"/>
+      <c r="HN2" s="52"/>
+      <c r="HO2" s="52"/>
+      <c r="HP2" s="52"/>
+      <c r="HQ2" s="52"/>
+      <c r="HR2" s="52"/>
+      <c r="HS2" s="52"/>
+      <c r="HT2" s="52"/>
+      <c r="HU2" s="52"/>
+      <c r="HV2" s="52"/>
+      <c r="HW2" s="52"/>
+      <c r="HX2" s="52"/>
+      <c r="HY2" s="52"/>
+      <c r="HZ2" s="52"/>
+      <c r="IA2" s="52"/>
+      <c r="IB2" s="52"/>
+      <c r="IC2" s="52"/>
+      <c r="ID2" s="52"/>
+      <c r="IE2" s="52"/>
+      <c r="IF2" s="52"/>
+      <c r="IG2" s="52"/>
+      <c r="IH2" s="52"/>
+      <c r="II2" s="52"/>
+      <c r="IJ2" s="52"/>
+      <c r="IK2" s="52"/>
+      <c r="IL2" s="52"/>
+      <c r="IM2" s="52"/>
+      <c r="IN2" s="52"/>
+      <c r="IO2" s="52"/>
+      <c r="IP2" s="52"/>
+      <c r="IQ2" s="52"/>
+      <c r="IR2" s="52"/>
+      <c r="IS2" s="52"/>
+      <c r="IT2" s="52"/>
+      <c r="IU2" s="52"/>
+      <c r="IV2" s="52"/>
+      <c r="IW2" s="52"/>
+      <c r="IX2" s="52"/>
+      <c r="IY2" s="52"/>
+      <c r="IZ2" s="52"/>
+      <c r="JA2" s="52"/>
+      <c r="JB2" s="52"/>
+      <c r="JC2" s="52"/>
+      <c r="JD2" s="52"/>
+      <c r="JE2" s="52"/>
+      <c r="JF2" s="52"/>
+      <c r="JG2" s="52"/>
+      <c r="JH2" s="52"/>
+      <c r="JI2" s="52"/>
+      <c r="JJ2" s="52"/>
+      <c r="JK2" s="52"/>
+      <c r="JL2" s="52"/>
+      <c r="JM2" s="52"/>
+      <c r="JN2" s="52"/>
+      <c r="JO2" s="52"/>
+      <c r="JP2" s="52"/>
+      <c r="JQ2" s="52"/>
+      <c r="JR2" s="52"/>
+      <c r="JS2" s="52"/>
+      <c r="JT2" s="52"/>
+      <c r="JU2" s="52"/>
+      <c r="JV2" s="52"/>
+      <c r="JW2" s="52"/>
+      <c r="JX2" s="52"/>
+      <c r="JY2" s="52"/>
+      <c r="JZ2" s="52"/>
+      <c r="KA2" s="52"/>
+      <c r="KB2" s="52"/>
+      <c r="KC2" s="52"/>
+      <c r="KD2" s="52"/>
+      <c r="KE2" s="52"/>
+      <c r="KF2" s="52"/>
+      <c r="KG2" s="52"/>
+      <c r="KH2" s="52"/>
+      <c r="KI2" s="52"/>
+      <c r="KJ2" s="52"/>
+      <c r="KK2" s="52"/>
+      <c r="KL2" s="52"/>
+      <c r="KM2" s="52"/>
+      <c r="KN2" s="52"/>
+      <c r="KO2" s="52"/>
+      <c r="KP2" s="52"/>
+      <c r="KQ2" s="52"/>
+      <c r="KR2" s="52"/>
+      <c r="KS2" s="52"/>
+      <c r="KT2" s="52"/>
+      <c r="KU2" s="52"/>
+      <c r="KV2" s="52"/>
+      <c r="KW2" s="52"/>
+      <c r="KX2" s="52"/>
+      <c r="KY2" s="52"/>
+      <c r="KZ2" s="52"/>
+      <c r="LA2" s="52"/>
+      <c r="LB2" s="52"/>
+      <c r="LC2" s="52"/>
+      <c r="LD2" s="52"/>
+      <c r="LE2" s="52"/>
+      <c r="LF2" s="52"/>
+      <c r="LG2" s="52"/>
+      <c r="LH2" s="52"/>
+      <c r="LI2" s="52"/>
+      <c r="LJ2" s="52"/>
+      <c r="LK2" s="52"/>
+      <c r="LL2" s="52"/>
+      <c r="LM2" s="52"/>
+      <c r="LN2" s="52"/>
+      <c r="LO2" s="52"/>
+      <c r="LP2" s="52"/>
+      <c r="LQ2" s="52"/>
+      <c r="LR2" s="52"/>
+      <c r="LS2" s="52"/>
+      <c r="LT2" s="52"/>
+    </row>
+    <row r="3" spans="1:332" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>18</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="G3" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52"/>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="52"/>
+      <c r="BV3" s="52"/>
+      <c r="BW3" s="52"/>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52"/>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="52"/>
+      <c r="CD3" s="52"/>
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="52"/>
+      <c r="CG3" s="52"/>
+      <c r="CH3" s="52"/>
+      <c r="CI3" s="52"/>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="52"/>
+      <c r="CL3" s="52"/>
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52"/>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="52"/>
+      <c r="CS3" s="52"/>
+      <c r="CT3" s="52"/>
+      <c r="CU3" s="52"/>
+      <c r="CV3" s="52"/>
+      <c r="CW3" s="52"/>
+      <c r="CX3" s="52"/>
+      <c r="CY3" s="52"/>
+      <c r="CZ3" s="52"/>
+      <c r="DA3" s="52"/>
+      <c r="DB3" s="52"/>
+      <c r="DC3" s="52"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="52"/>
+      <c r="DF3" s="52"/>
+      <c r="DG3" s="52"/>
+      <c r="DH3" s="52"/>
+      <c r="DI3" s="52"/>
+      <c r="DJ3" s="52"/>
+      <c r="DK3" s="52"/>
+      <c r="DL3" s="52"/>
+      <c r="DM3" s="52"/>
+      <c r="DN3" s="52"/>
+      <c r="DO3" s="52"/>
+      <c r="DP3" s="52"/>
+      <c r="DQ3" s="52"/>
+      <c r="DR3" s="52"/>
+      <c r="DS3" s="52"/>
+      <c r="DT3" s="52"/>
+      <c r="DU3" s="52"/>
+      <c r="DV3" s="52"/>
+      <c r="DW3" s="52"/>
+      <c r="DX3" s="52"/>
+      <c r="DY3" s="52"/>
+      <c r="DZ3" s="52"/>
+      <c r="EA3" s="52"/>
+      <c r="EB3" s="52"/>
+      <c r="EC3" s="52"/>
+      <c r="ED3" s="52"/>
+      <c r="EE3" s="52"/>
+      <c r="EF3" s="52"/>
+      <c r="EG3" s="52"/>
+      <c r="EH3" s="52"/>
+      <c r="EI3" s="52"/>
+      <c r="EJ3" s="52"/>
+      <c r="EK3" s="52"/>
+      <c r="EL3" s="52"/>
+      <c r="EM3" s="52"/>
+      <c r="EN3" s="52"/>
+      <c r="EO3" s="52"/>
+      <c r="EP3" s="52"/>
+      <c r="EQ3" s="52"/>
+      <c r="ER3" s="52"/>
+      <c r="ES3" s="52"/>
+      <c r="ET3" s="52"/>
+      <c r="EU3" s="52"/>
+      <c r="EV3" s="52"/>
+      <c r="EW3" s="52"/>
+      <c r="EX3" s="52"/>
+      <c r="EY3" s="52"/>
+      <c r="EZ3" s="52"/>
+      <c r="FA3" s="52"/>
+      <c r="FB3" s="52"/>
+      <c r="FC3" s="52"/>
+      <c r="FD3" s="52"/>
+      <c r="FE3" s="52"/>
+      <c r="FF3" s="52"/>
+      <c r="FG3" s="52"/>
+      <c r="FH3" s="52"/>
+      <c r="FI3" s="52"/>
+      <c r="FJ3" s="52"/>
+      <c r="FK3" s="52"/>
+      <c r="FL3" s="52"/>
+      <c r="FM3" s="52"/>
+      <c r="FN3" s="52"/>
+      <c r="FO3" s="52"/>
+      <c r="FP3" s="52"/>
+      <c r="FQ3" s="52"/>
+      <c r="FR3" s="52"/>
+      <c r="FS3" s="52"/>
+      <c r="FT3" s="52"/>
+      <c r="FU3" s="52"/>
+      <c r="FV3" s="52"/>
+      <c r="FW3" s="52"/>
+      <c r="FX3" s="52"/>
+      <c r="FY3" s="52"/>
+      <c r="FZ3" s="52"/>
+      <c r="GA3" s="52"/>
+      <c r="GB3" s="52"/>
+      <c r="GC3" s="52"/>
+      <c r="GD3" s="52"/>
+      <c r="GE3" s="52"/>
+      <c r="GF3" s="52"/>
+      <c r="GG3" s="52"/>
+      <c r="GH3" s="52"/>
+      <c r="GI3" s="52"/>
+      <c r="GJ3" s="52"/>
+      <c r="GK3" s="52"/>
+      <c r="GL3" s="52"/>
+      <c r="GM3" s="52"/>
+      <c r="GN3" s="52"/>
+      <c r="GO3" s="52"/>
+      <c r="GP3" s="52"/>
+      <c r="GQ3" s="52"/>
+      <c r="GR3" s="52"/>
+      <c r="GS3" s="52"/>
+      <c r="GT3" s="52"/>
+      <c r="GU3" s="52"/>
+      <c r="GV3" s="52"/>
+      <c r="GW3" s="52"/>
+      <c r="GX3" s="52"/>
+      <c r="GY3" s="52"/>
+      <c r="GZ3" s="52"/>
+      <c r="HA3" s="52"/>
+      <c r="HB3" s="52"/>
+      <c r="HC3" s="52"/>
+      <c r="HD3" s="52"/>
+      <c r="HE3" s="52"/>
+      <c r="HF3" s="52"/>
+      <c r="HG3" s="52"/>
+      <c r="HH3" s="52"/>
+      <c r="HI3" s="52"/>
+      <c r="HJ3" s="52"/>
+      <c r="HK3" s="52"/>
+      <c r="HL3" s="52"/>
+      <c r="HM3" s="52"/>
+      <c r="HN3" s="52"/>
+      <c r="HO3" s="52"/>
+      <c r="HP3" s="52"/>
+      <c r="HQ3" s="52"/>
+      <c r="HR3" s="52"/>
+      <c r="HS3" s="52"/>
+      <c r="HT3" s="52"/>
+      <c r="HU3" s="52"/>
+      <c r="HV3" s="52"/>
+      <c r="HW3" s="52"/>
+      <c r="HX3" s="52"/>
+      <c r="HY3" s="52"/>
+      <c r="HZ3" s="52"/>
+      <c r="IA3" s="52"/>
+      <c r="IB3" s="52"/>
+      <c r="IC3" s="52"/>
+      <c r="ID3" s="52"/>
+      <c r="IE3" s="52"/>
+      <c r="IF3" s="52"/>
+      <c r="IG3" s="52"/>
+      <c r="IH3" s="52"/>
+      <c r="II3" s="52"/>
+      <c r="IJ3" s="52"/>
+      <c r="IK3" s="52"/>
+      <c r="IL3" s="52"/>
+      <c r="IM3" s="52"/>
+      <c r="IN3" s="52"/>
+      <c r="IO3" s="52"/>
+      <c r="IP3" s="52"/>
+      <c r="IQ3" s="52"/>
+      <c r="IR3" s="52"/>
+      <c r="IS3" s="52"/>
+      <c r="IT3" s="52"/>
+      <c r="IU3" s="52"/>
+      <c r="IV3" s="52"/>
+      <c r="IW3" s="52"/>
+      <c r="IX3" s="52"/>
+      <c r="IY3" s="52"/>
+      <c r="IZ3" s="52"/>
+      <c r="JA3" s="52"/>
+      <c r="JB3" s="52"/>
+      <c r="JC3" s="52"/>
+      <c r="JD3" s="52"/>
+      <c r="JE3" s="52"/>
+      <c r="JF3" s="52"/>
+      <c r="JG3" s="52"/>
+      <c r="JH3" s="52"/>
+      <c r="JI3" s="52"/>
+      <c r="JJ3" s="52"/>
+      <c r="JK3" s="52"/>
+      <c r="JL3" s="52"/>
+      <c r="JM3" s="52"/>
+      <c r="JN3" s="52"/>
+      <c r="JO3" s="52"/>
+      <c r="JP3" s="52"/>
+      <c r="JQ3" s="52"/>
+      <c r="JR3" s="52"/>
+      <c r="JS3" s="52"/>
+      <c r="JT3" s="52"/>
+      <c r="JU3" s="52"/>
+      <c r="JV3" s="52"/>
+      <c r="JW3" s="52"/>
+      <c r="JX3" s="52"/>
+      <c r="JY3" s="52"/>
+      <c r="JZ3" s="52"/>
+      <c r="KA3" s="52"/>
+      <c r="KB3" s="52"/>
+      <c r="KC3" s="52"/>
+      <c r="KD3" s="52"/>
+      <c r="KE3" s="52"/>
+      <c r="KF3" s="52"/>
+      <c r="KG3" s="52"/>
+      <c r="KH3" s="52"/>
+      <c r="KI3" s="52"/>
+      <c r="KJ3" s="52"/>
+      <c r="KK3" s="52"/>
+      <c r="KL3" s="52"/>
+      <c r="KM3" s="52"/>
+      <c r="KN3" s="52"/>
+      <c r="KO3" s="52"/>
+      <c r="KP3" s="52"/>
+      <c r="KQ3" s="52"/>
+      <c r="KR3" s="52"/>
+      <c r="KS3" s="52"/>
+      <c r="KT3" s="52"/>
+      <c r="KU3" s="52"/>
+      <c r="KV3" s="52"/>
+      <c r="KW3" s="52"/>
+      <c r="KX3" s="52"/>
+      <c r="KY3" s="52"/>
+      <c r="KZ3" s="52"/>
+      <c r="LA3" s="52"/>
+      <c r="LB3" s="52"/>
+      <c r="LC3" s="52"/>
+      <c r="LD3" s="52"/>
+      <c r="LE3" s="52"/>
+      <c r="LF3" s="52"/>
+      <c r="LG3" s="52"/>
+      <c r="LH3" s="52"/>
+      <c r="LI3" s="52"/>
+      <c r="LJ3" s="52"/>
+      <c r="LK3" s="52"/>
+      <c r="LL3" s="52"/>
+      <c r="LM3" s="52"/>
+      <c r="LN3" s="52"/>
+      <c r="LO3" s="52"/>
+      <c r="LP3" s="52"/>
+      <c r="LQ3" s="52"/>
+      <c r="LR3" s="52"/>
+      <c r="LS3" s="52"/>
+      <c r="LT3" s="52"/>
+    </row>
+    <row r="4" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="29">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="29"/>
+        <v>11</v>
+      </c>
       <c r="G4" s="29" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29">
-        <v>18</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="52"/>
+      <c r="BM4" s="52"/>
+      <c r="BN4" s="52"/>
+      <c r="BO4" s="52"/>
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="52"/>
+      <c r="BS4" s="52"/>
+      <c r="BT4" s="52"/>
+      <c r="BU4" s="52"/>
+      <c r="BV4" s="52"/>
+      <c r="BW4" s="52"/>
+      <c r="BX4" s="52"/>
+      <c r="BY4" s="52"/>
+      <c r="BZ4" s="52"/>
+      <c r="CA4" s="52"/>
+      <c r="CB4" s="52"/>
+      <c r="CC4" s="52"/>
+      <c r="CD4" s="52"/>
+      <c r="CE4" s="52"/>
+      <c r="CF4" s="52"/>
+      <c r="CG4" s="52"/>
+      <c r="CH4" s="52"/>
+      <c r="CI4" s="52"/>
+      <c r="CJ4" s="52"/>
+      <c r="CK4" s="52"/>
+      <c r="CL4" s="52"/>
+      <c r="CM4" s="52"/>
+      <c r="CN4" s="52"/>
+      <c r="CO4" s="52"/>
+      <c r="CP4" s="52"/>
+      <c r="CQ4" s="52"/>
+      <c r="CR4" s="52"/>
+      <c r="CS4" s="52"/>
+      <c r="CT4" s="52"/>
+      <c r="CU4" s="52"/>
+      <c r="CV4" s="52"/>
+      <c r="CW4" s="52"/>
+      <c r="CX4" s="52"/>
+      <c r="CY4" s="52"/>
+      <c r="CZ4" s="52"/>
+      <c r="DA4" s="52"/>
+      <c r="DB4" s="52"/>
+      <c r="DC4" s="52"/>
+      <c r="DD4" s="52"/>
+      <c r="DE4" s="52"/>
+      <c r="DF4" s="52"/>
+      <c r="DG4" s="52"/>
+      <c r="DH4" s="52"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="52"/>
+      <c r="DK4" s="52"/>
+      <c r="DL4" s="52"/>
+      <c r="DM4" s="52"/>
+      <c r="DN4" s="52"/>
+      <c r="DO4" s="52"/>
+      <c r="DP4" s="52"/>
+      <c r="DQ4" s="52"/>
+      <c r="DR4" s="52"/>
+      <c r="DS4" s="52"/>
+      <c r="DT4" s="52"/>
+      <c r="DU4" s="52"/>
+      <c r="DV4" s="52"/>
+      <c r="DW4" s="52"/>
+      <c r="DX4" s="52"/>
+      <c r="DY4" s="52"/>
+      <c r="DZ4" s="52"/>
+      <c r="EA4" s="52"/>
+      <c r="EB4" s="52"/>
+      <c r="EC4" s="52"/>
+      <c r="ED4" s="52"/>
+      <c r="EE4" s="52"/>
+      <c r="EF4" s="52"/>
+      <c r="EG4" s="52"/>
+      <c r="EH4" s="52"/>
+      <c r="EI4" s="52"/>
+      <c r="EJ4" s="52"/>
+      <c r="EK4" s="52"/>
+      <c r="EL4" s="52"/>
+      <c r="EM4" s="52"/>
+      <c r="EN4" s="52"/>
+      <c r="EO4" s="52"/>
+      <c r="EP4" s="52"/>
+      <c r="EQ4" s="52"/>
+      <c r="ER4" s="52"/>
+      <c r="ES4" s="52"/>
+      <c r="ET4" s="52"/>
+      <c r="EU4" s="52"/>
+      <c r="EV4" s="52"/>
+      <c r="EW4" s="52"/>
+      <c r="EX4" s="52"/>
+      <c r="EY4" s="52"/>
+      <c r="EZ4" s="52"/>
+      <c r="FA4" s="52"/>
+      <c r="FB4" s="52"/>
+      <c r="FC4" s="52"/>
+      <c r="FD4" s="52"/>
+      <c r="FE4" s="52"/>
+      <c r="FF4" s="52"/>
+      <c r="FG4" s="52"/>
+      <c r="FH4" s="52"/>
+      <c r="FI4" s="52"/>
+      <c r="FJ4" s="52"/>
+      <c r="FK4" s="52"/>
+      <c r="FL4" s="52"/>
+      <c r="FM4" s="52"/>
+      <c r="FN4" s="52"/>
+      <c r="FO4" s="52"/>
+      <c r="FP4" s="52"/>
+      <c r="FQ4" s="52"/>
+      <c r="FR4" s="52"/>
+      <c r="FS4" s="52"/>
+      <c r="FT4" s="52"/>
+      <c r="FU4" s="52"/>
+      <c r="FV4" s="52"/>
+      <c r="FW4" s="52"/>
+      <c r="FX4" s="52"/>
+      <c r="FY4" s="52"/>
+      <c r="FZ4" s="52"/>
+      <c r="GA4" s="52"/>
+      <c r="GB4" s="52"/>
+      <c r="GC4" s="52"/>
+      <c r="GD4" s="52"/>
+      <c r="GE4" s="52"/>
+      <c r="GF4" s="52"/>
+      <c r="GG4" s="52"/>
+      <c r="GH4" s="52"/>
+      <c r="GI4" s="52"/>
+      <c r="GJ4" s="52"/>
+      <c r="GK4" s="52"/>
+      <c r="GL4" s="52"/>
+      <c r="GM4" s="52"/>
+      <c r="GN4" s="52"/>
+      <c r="GO4" s="52"/>
+      <c r="GP4" s="52"/>
+      <c r="GQ4" s="52"/>
+      <c r="GR4" s="52"/>
+      <c r="GS4" s="52"/>
+      <c r="GT4" s="52"/>
+      <c r="GU4" s="52"/>
+      <c r="GV4" s="52"/>
+      <c r="GW4" s="52"/>
+      <c r="GX4" s="52"/>
+      <c r="GY4" s="52"/>
+      <c r="GZ4" s="52"/>
+      <c r="HA4" s="52"/>
+      <c r="HB4" s="52"/>
+      <c r="HC4" s="52"/>
+      <c r="HD4" s="52"/>
+      <c r="HE4" s="52"/>
+      <c r="HF4" s="52"/>
+      <c r="HG4" s="52"/>
+      <c r="HH4" s="52"/>
+      <c r="HI4" s="52"/>
+      <c r="HJ4" s="52"/>
+      <c r="HK4" s="52"/>
+      <c r="HL4" s="52"/>
+      <c r="HM4" s="52"/>
+      <c r="HN4" s="52"/>
+      <c r="HO4" s="52"/>
+      <c r="HP4" s="52"/>
+      <c r="HQ4" s="52"/>
+      <c r="HR4" s="52"/>
+      <c r="HS4" s="52"/>
+      <c r="HT4" s="52"/>
+      <c r="HU4" s="52"/>
+      <c r="HV4" s="52"/>
+      <c r="HW4" s="52"/>
+      <c r="HX4" s="52"/>
+      <c r="HY4" s="52"/>
+      <c r="HZ4" s="52"/>
+      <c r="IA4" s="52"/>
+      <c r="IB4" s="52"/>
+      <c r="IC4" s="52"/>
+      <c r="ID4" s="52"/>
+      <c r="IE4" s="52"/>
+      <c r="IF4" s="52"/>
+      <c r="IG4" s="52"/>
+      <c r="IH4" s="52"/>
+      <c r="II4" s="52"/>
+      <c r="IJ4" s="52"/>
+      <c r="IK4" s="52"/>
+      <c r="IL4" s="52"/>
+      <c r="IM4" s="52"/>
+      <c r="IN4" s="52"/>
+      <c r="IO4" s="52"/>
+      <c r="IP4" s="52"/>
+      <c r="IQ4" s="52"/>
+      <c r="IR4" s="52"/>
+      <c r="IS4" s="52"/>
+      <c r="IT4" s="52"/>
+      <c r="IU4" s="52"/>
+      <c r="IV4" s="52"/>
+      <c r="IW4" s="52"/>
+      <c r="IX4" s="52"/>
+      <c r="IY4" s="52"/>
+      <c r="IZ4" s="52"/>
+      <c r="JA4" s="52"/>
+      <c r="JB4" s="52"/>
+      <c r="JC4" s="52"/>
+      <c r="JD4" s="52"/>
+      <c r="JE4" s="52"/>
+      <c r="JF4" s="52"/>
+      <c r="JG4" s="52"/>
+      <c r="JH4" s="52"/>
+      <c r="JI4" s="52"/>
+      <c r="JJ4" s="52"/>
+      <c r="JK4" s="52"/>
+      <c r="JL4" s="52"/>
+      <c r="JM4" s="52"/>
+      <c r="JN4" s="52"/>
+      <c r="JO4" s="52"/>
+      <c r="JP4" s="52"/>
+      <c r="JQ4" s="52"/>
+      <c r="JR4" s="52"/>
+      <c r="JS4" s="52"/>
+      <c r="JT4" s="52"/>
+      <c r="JU4" s="52"/>
+      <c r="JV4" s="52"/>
+      <c r="JW4" s="52"/>
+      <c r="JX4" s="52"/>
+      <c r="JY4" s="52"/>
+      <c r="JZ4" s="52"/>
+      <c r="KA4" s="52"/>
+      <c r="KB4" s="52"/>
+      <c r="KC4" s="52"/>
+      <c r="KD4" s="52"/>
+      <c r="KE4" s="52"/>
+      <c r="KF4" s="52"/>
+      <c r="KG4" s="52"/>
+      <c r="KH4" s="52"/>
+      <c r="KI4" s="52"/>
+      <c r="KJ4" s="52"/>
+      <c r="KK4" s="52"/>
+      <c r="KL4" s="52"/>
+      <c r="KM4" s="52"/>
+      <c r="KN4" s="52"/>
+      <c r="KO4" s="52"/>
+      <c r="KP4" s="52"/>
+      <c r="KQ4" s="52"/>
+      <c r="KR4" s="52"/>
+      <c r="KS4" s="52"/>
+      <c r="KT4" s="52"/>
+      <c r="KU4" s="52"/>
+      <c r="KV4" s="52"/>
+      <c r="KW4" s="52"/>
+      <c r="KX4" s="52"/>
+      <c r="KY4" s="52"/>
+      <c r="KZ4" s="52"/>
+      <c r="LA4" s="52"/>
+      <c r="LB4" s="52"/>
+      <c r="LC4" s="52"/>
+      <c r="LD4" s="52"/>
+      <c r="LE4" s="52"/>
+      <c r="LF4" s="52"/>
+      <c r="LG4" s="52"/>
+      <c r="LH4" s="52"/>
+      <c r="LI4" s="52"/>
+      <c r="LJ4" s="52"/>
+      <c r="LK4" s="52"/>
+      <c r="LL4" s="52"/>
+      <c r="LM4" s="52"/>
+      <c r="LN4" s="52"/>
+      <c r="LO4" s="52"/>
+      <c r="LP4" s="52"/>
+      <c r="LQ4" s="52"/>
+      <c r="LR4" s="52"/>
+      <c r="LS4" s="52"/>
+      <c r="LT4" s="52"/>
+    </row>
+    <row r="5" spans="1:332" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B5" s="30">
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D5" s="30">
         <v>47</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="52"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="52"/>
+      <c r="BI5" s="52"/>
+      <c r="BJ5" s="52"/>
+      <c r="BK5" s="52"/>
+      <c r="BL5" s="52"/>
+      <c r="BM5" s="52"/>
+      <c r="BN5" s="52"/>
+      <c r="BO5" s="52"/>
+      <c r="BP5" s="52"/>
+      <c r="BQ5" s="52"/>
+      <c r="BR5" s="52"/>
+      <c r="BS5" s="52"/>
+      <c r="BT5" s="52"/>
+      <c r="BU5" s="52"/>
+      <c r="BV5" s="52"/>
+      <c r="BW5" s="52"/>
+      <c r="BX5" s="52"/>
+      <c r="BY5" s="52"/>
+      <c r="BZ5" s="52"/>
+      <c r="CA5" s="52"/>
+      <c r="CB5" s="52"/>
+      <c r="CC5" s="52"/>
+      <c r="CD5" s="52"/>
+      <c r="CE5" s="52"/>
+      <c r="CF5" s="52"/>
+      <c r="CG5" s="52"/>
+      <c r="CH5" s="52"/>
+      <c r="CI5" s="52"/>
+      <c r="CJ5" s="52"/>
+      <c r="CK5" s="52"/>
+      <c r="CL5" s="52"/>
+      <c r="CM5" s="52"/>
+      <c r="CN5" s="52"/>
+      <c r="CO5" s="52"/>
+      <c r="CP5" s="52"/>
+      <c r="CQ5" s="52"/>
+      <c r="CR5" s="52"/>
+      <c r="CS5" s="52"/>
+      <c r="CT5" s="52"/>
+      <c r="CU5" s="52"/>
+      <c r="CV5" s="52"/>
+      <c r="CW5" s="52"/>
+      <c r="CX5" s="52"/>
+      <c r="CY5" s="52"/>
+      <c r="CZ5" s="52"/>
+      <c r="DA5" s="52"/>
+      <c r="DB5" s="52"/>
+      <c r="DC5" s="52"/>
+      <c r="DD5" s="52"/>
+      <c r="DE5" s="52"/>
+      <c r="DF5" s="52"/>
+      <c r="DG5" s="52"/>
+      <c r="DH5" s="52"/>
+      <c r="DI5" s="52"/>
+      <c r="DJ5" s="52"/>
+      <c r="DK5" s="52"/>
+      <c r="DL5" s="52"/>
+      <c r="DM5" s="52"/>
+      <c r="DN5" s="52"/>
+      <c r="DO5" s="52"/>
+      <c r="DP5" s="52"/>
+      <c r="DQ5" s="52"/>
+      <c r="DR5" s="52"/>
+      <c r="DS5" s="52"/>
+      <c r="DT5" s="52"/>
+      <c r="DU5" s="52"/>
+      <c r="DV5" s="52"/>
+      <c r="DW5" s="52"/>
+      <c r="DX5" s="52"/>
+      <c r="DY5" s="52"/>
+      <c r="DZ5" s="52"/>
+      <c r="EA5" s="52"/>
+      <c r="EB5" s="52"/>
+      <c r="EC5" s="52"/>
+      <c r="ED5" s="52"/>
+      <c r="EE5" s="52"/>
+      <c r="EF5" s="52"/>
+      <c r="EG5" s="52"/>
+      <c r="EH5" s="52"/>
+      <c r="EI5" s="52"/>
+      <c r="EJ5" s="52"/>
+      <c r="EK5" s="52"/>
+      <c r="EL5" s="52"/>
+      <c r="EM5" s="52"/>
+      <c r="EN5" s="52"/>
+      <c r="EO5" s="52"/>
+      <c r="EP5" s="52"/>
+      <c r="EQ5" s="52"/>
+      <c r="ER5" s="52"/>
+      <c r="ES5" s="52"/>
+      <c r="ET5" s="52"/>
+      <c r="EU5" s="52"/>
+      <c r="EV5" s="52"/>
+      <c r="EW5" s="52"/>
+      <c r="EX5" s="52"/>
+      <c r="EY5" s="52"/>
+      <c r="EZ5" s="52"/>
+      <c r="FA5" s="52"/>
+      <c r="FB5" s="52"/>
+      <c r="FC5" s="52"/>
+      <c r="FD5" s="52"/>
+      <c r="FE5" s="52"/>
+      <c r="FF5" s="52"/>
+      <c r="FG5" s="52"/>
+      <c r="FH5" s="52"/>
+      <c r="FI5" s="52"/>
+      <c r="FJ5" s="52"/>
+      <c r="FK5" s="52"/>
+      <c r="FL5" s="52"/>
+      <c r="FM5" s="52"/>
+      <c r="FN5" s="52"/>
+      <c r="FO5" s="52"/>
+      <c r="FP5" s="52"/>
+      <c r="FQ5" s="52"/>
+      <c r="FR5" s="52"/>
+      <c r="FS5" s="52"/>
+      <c r="FT5" s="52"/>
+      <c r="FU5" s="52"/>
+      <c r="FV5" s="52"/>
+      <c r="FW5" s="52"/>
+      <c r="FX5" s="52"/>
+      <c r="FY5" s="52"/>
+      <c r="FZ5" s="52"/>
+      <c r="GA5" s="52"/>
+      <c r="GB5" s="52"/>
+      <c r="GC5" s="52"/>
+      <c r="GD5" s="52"/>
+      <c r="GE5" s="52"/>
+      <c r="GF5" s="52"/>
+      <c r="GG5" s="52"/>
+      <c r="GH5" s="52"/>
+      <c r="GI5" s="52"/>
+      <c r="GJ5" s="52"/>
+      <c r="GK5" s="52"/>
+      <c r="GL5" s="52"/>
+      <c r="GM5" s="52"/>
+      <c r="GN5" s="52"/>
+      <c r="GO5" s="52"/>
+      <c r="GP5" s="52"/>
+      <c r="GQ5" s="52"/>
+      <c r="GR5" s="52"/>
+      <c r="GS5" s="52"/>
+      <c r="GT5" s="52"/>
+      <c r="GU5" s="52"/>
+      <c r="GV5" s="52"/>
+      <c r="GW5" s="52"/>
+      <c r="GX5" s="52"/>
+      <c r="GY5" s="52"/>
+      <c r="GZ5" s="52"/>
+      <c r="HA5" s="52"/>
+      <c r="HB5" s="52"/>
+      <c r="HC5" s="52"/>
+      <c r="HD5" s="52"/>
+      <c r="HE5" s="52"/>
+      <c r="HF5" s="52"/>
+      <c r="HG5" s="52"/>
+      <c r="HH5" s="52"/>
+      <c r="HI5" s="52"/>
+      <c r="HJ5" s="52"/>
+      <c r="HK5" s="52"/>
+      <c r="HL5" s="52"/>
+      <c r="HM5" s="52"/>
+      <c r="HN5" s="52"/>
+      <c r="HO5" s="52"/>
+      <c r="HP5" s="52"/>
+      <c r="HQ5" s="52"/>
+      <c r="HR5" s="52"/>
+      <c r="HS5" s="52"/>
+      <c r="HT5" s="52"/>
+      <c r="HU5" s="52"/>
+      <c r="HV5" s="52"/>
+      <c r="HW5" s="52"/>
+      <c r="HX5" s="52"/>
+      <c r="HY5" s="52"/>
+      <c r="HZ5" s="52"/>
+      <c r="IA5" s="52"/>
+      <c r="IB5" s="52"/>
+      <c r="IC5" s="52"/>
+      <c r="ID5" s="52"/>
+      <c r="IE5" s="52"/>
+      <c r="IF5" s="52"/>
+      <c r="IG5" s="52"/>
+      <c r="IH5" s="52"/>
+      <c r="II5" s="52"/>
+      <c r="IJ5" s="52"/>
+      <c r="IK5" s="52"/>
+      <c r="IL5" s="52"/>
+      <c r="IM5" s="52"/>
+      <c r="IN5" s="52"/>
+      <c r="IO5" s="52"/>
+      <c r="IP5" s="52"/>
+      <c r="IQ5" s="52"/>
+      <c r="IR5" s="52"/>
+      <c r="IS5" s="52"/>
+      <c r="IT5" s="52"/>
+      <c r="IU5" s="52"/>
+      <c r="IV5" s="52"/>
+      <c r="IW5" s="52"/>
+      <c r="IX5" s="52"/>
+      <c r="IY5" s="52"/>
+      <c r="IZ5" s="52"/>
+      <c r="JA5" s="52"/>
+      <c r="JB5" s="52"/>
+      <c r="JC5" s="52"/>
+      <c r="JD5" s="52"/>
+      <c r="JE5" s="52"/>
+      <c r="JF5" s="52"/>
+      <c r="JG5" s="52"/>
+      <c r="JH5" s="52"/>
+      <c r="JI5" s="52"/>
+      <c r="JJ5" s="52"/>
+      <c r="JK5" s="52"/>
+      <c r="JL5" s="52"/>
+      <c r="JM5" s="52"/>
+      <c r="JN5" s="52"/>
+      <c r="JO5" s="52"/>
+      <c r="JP5" s="52"/>
+      <c r="JQ5" s="52"/>
+      <c r="JR5" s="52"/>
+      <c r="JS5" s="52"/>
+      <c r="JT5" s="52"/>
+      <c r="JU5" s="52"/>
+      <c r="JV5" s="52"/>
+      <c r="JW5" s="52"/>
+      <c r="JX5" s="52"/>
+      <c r="JY5" s="52"/>
+      <c r="JZ5" s="52"/>
+      <c r="KA5" s="52"/>
+      <c r="KB5" s="52"/>
+      <c r="KC5" s="52"/>
+      <c r="KD5" s="52"/>
+      <c r="KE5" s="52"/>
+      <c r="KF5" s="52"/>
+      <c r="KG5" s="52"/>
+      <c r="KH5" s="52"/>
+      <c r="KI5" s="52"/>
+      <c r="KJ5" s="52"/>
+      <c r="KK5" s="52"/>
+      <c r="KL5" s="52"/>
+      <c r="KM5" s="52"/>
+      <c r="KN5" s="52"/>
+      <c r="KO5" s="52"/>
+      <c r="KP5" s="52"/>
+      <c r="KQ5" s="52"/>
+      <c r="KR5" s="52"/>
+      <c r="KS5" s="52"/>
+      <c r="KT5" s="52"/>
+      <c r="KU5" s="52"/>
+      <c r="KV5" s="52"/>
+      <c r="KW5" s="52"/>
+      <c r="KX5" s="52"/>
+      <c r="KY5" s="52"/>
+      <c r="KZ5" s="52"/>
+      <c r="LA5" s="52"/>
+      <c r="LB5" s="52"/>
+      <c r="LC5" s="52"/>
+      <c r="LD5" s="52"/>
+      <c r="LE5" s="52"/>
+      <c r="LF5" s="52"/>
+      <c r="LG5" s="52"/>
+      <c r="LH5" s="52"/>
+      <c r="LI5" s="52"/>
+      <c r="LJ5" s="52"/>
+      <c r="LK5" s="52"/>
+      <c r="LL5" s="52"/>
+      <c r="LM5" s="52"/>
+      <c r="LN5" s="52"/>
+      <c r="LO5" s="52"/>
+      <c r="LP5" s="52"/>
+      <c r="LQ5" s="52"/>
+      <c r="LR5" s="52"/>
+      <c r="LS5" s="52"/>
+      <c r="LT5" s="52"/>
+    </row>
+    <row r="6" spans="1:332" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D6" s="31">
         <v>48</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="31"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="52"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="52"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="52"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="52"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="52"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
+      <c r="BJ6" s="52"/>
+      <c r="BK6" s="52"/>
+      <c r="BL6" s="52"/>
+      <c r="BM6" s="52"/>
+      <c r="BN6" s="52"/>
+      <c r="BO6" s="52"/>
+      <c r="BP6" s="52"/>
+      <c r="BQ6" s="52"/>
+      <c r="BR6" s="52"/>
+      <c r="BS6" s="52"/>
+      <c r="BT6" s="52"/>
+      <c r="BU6" s="52"/>
+      <c r="BV6" s="52"/>
+      <c r="BW6" s="52"/>
+      <c r="BX6" s="52"/>
+      <c r="BY6" s="52"/>
+      <c r="BZ6" s="52"/>
+      <c r="CA6" s="52"/>
+      <c r="CB6" s="52"/>
+      <c r="CC6" s="52"/>
+      <c r="CD6" s="52"/>
+      <c r="CE6" s="52"/>
+      <c r="CF6" s="52"/>
+      <c r="CG6" s="52"/>
+      <c r="CH6" s="52"/>
+      <c r="CI6" s="52"/>
+      <c r="CJ6" s="52"/>
+      <c r="CK6" s="52"/>
+      <c r="CL6" s="52"/>
+      <c r="CM6" s="52"/>
+      <c r="CN6" s="52"/>
+      <c r="CO6" s="52"/>
+      <c r="CP6" s="52"/>
+      <c r="CQ6" s="52"/>
+      <c r="CR6" s="52"/>
+      <c r="CS6" s="52"/>
+      <c r="CT6" s="52"/>
+      <c r="CU6" s="52"/>
+      <c r="CV6" s="52"/>
+      <c r="CW6" s="52"/>
+      <c r="CX6" s="52"/>
+      <c r="CY6" s="52"/>
+      <c r="CZ6" s="52"/>
+      <c r="DA6" s="52"/>
+      <c r="DB6" s="52"/>
+      <c r="DC6" s="52"/>
+      <c r="DD6" s="52"/>
+      <c r="DE6" s="52"/>
+      <c r="DF6" s="52"/>
+      <c r="DG6" s="52"/>
+      <c r="DH6" s="52"/>
+      <c r="DI6" s="52"/>
+      <c r="DJ6" s="52"/>
+      <c r="DK6" s="52"/>
+      <c r="DL6" s="52"/>
+      <c r="DM6" s="52"/>
+      <c r="DN6" s="52"/>
+      <c r="DO6" s="52"/>
+      <c r="DP6" s="52"/>
+      <c r="DQ6" s="52"/>
+      <c r="DR6" s="52"/>
+      <c r="DS6" s="52"/>
+      <c r="DT6" s="52"/>
+      <c r="DU6" s="52"/>
+      <c r="DV6" s="52"/>
+      <c r="DW6" s="52"/>
+      <c r="DX6" s="52"/>
+      <c r="DY6" s="52"/>
+      <c r="DZ6" s="52"/>
+      <c r="EA6" s="52"/>
+      <c r="EB6" s="52"/>
+      <c r="EC6" s="52"/>
+      <c r="ED6" s="52"/>
+      <c r="EE6" s="52"/>
+      <c r="EF6" s="52"/>
+      <c r="EG6" s="52"/>
+      <c r="EH6" s="52"/>
+      <c r="EI6" s="52"/>
+      <c r="EJ6" s="52"/>
+      <c r="EK6" s="52"/>
+      <c r="EL6" s="52"/>
+      <c r="EM6" s="52"/>
+      <c r="EN6" s="52"/>
+      <c r="EO6" s="52"/>
+      <c r="EP6" s="52"/>
+      <c r="EQ6" s="52"/>
+      <c r="ER6" s="52"/>
+      <c r="ES6" s="52"/>
+      <c r="ET6" s="52"/>
+      <c r="EU6" s="52"/>
+      <c r="EV6" s="52"/>
+      <c r="EW6" s="52"/>
+      <c r="EX6" s="52"/>
+      <c r="EY6" s="52"/>
+      <c r="EZ6" s="52"/>
+      <c r="FA6" s="52"/>
+      <c r="FB6" s="52"/>
+      <c r="FC6" s="52"/>
+      <c r="FD6" s="52"/>
+      <c r="FE6" s="52"/>
+      <c r="FF6" s="52"/>
+      <c r="FG6" s="52"/>
+      <c r="FH6" s="52"/>
+      <c r="FI6" s="52"/>
+      <c r="FJ6" s="52"/>
+      <c r="FK6" s="52"/>
+      <c r="FL6" s="52"/>
+      <c r="FM6" s="52"/>
+      <c r="FN6" s="52"/>
+      <c r="FO6" s="52"/>
+      <c r="FP6" s="52"/>
+      <c r="FQ6" s="52"/>
+      <c r="FR6" s="52"/>
+      <c r="FS6" s="52"/>
+      <c r="FT6" s="52"/>
+      <c r="FU6" s="52"/>
+      <c r="FV6" s="52"/>
+      <c r="FW6" s="52"/>
+      <c r="FX6" s="52"/>
+      <c r="FY6" s="52"/>
+      <c r="FZ6" s="52"/>
+      <c r="GA6" s="52"/>
+      <c r="GB6" s="52"/>
+      <c r="GC6" s="52"/>
+      <c r="GD6" s="52"/>
+      <c r="GE6" s="52"/>
+      <c r="GF6" s="52"/>
+      <c r="GG6" s="52"/>
+      <c r="GH6" s="52"/>
+      <c r="GI6" s="52"/>
+      <c r="GJ6" s="52"/>
+      <c r="GK6" s="52"/>
+      <c r="GL6" s="52"/>
+      <c r="GM6" s="52"/>
+      <c r="GN6" s="52"/>
+      <c r="GO6" s="52"/>
+      <c r="GP6" s="52"/>
+      <c r="GQ6" s="52"/>
+      <c r="GR6" s="52"/>
+      <c r="GS6" s="52"/>
+      <c r="GT6" s="52"/>
+      <c r="GU6" s="52"/>
+      <c r="GV6" s="52"/>
+      <c r="GW6" s="52"/>
+      <c r="GX6" s="52"/>
+      <c r="GY6" s="52"/>
+      <c r="GZ6" s="52"/>
+      <c r="HA6" s="52"/>
+      <c r="HB6" s="52"/>
+      <c r="HC6" s="52"/>
+      <c r="HD6" s="52"/>
+      <c r="HE6" s="52"/>
+      <c r="HF6" s="52"/>
+      <c r="HG6" s="52"/>
+      <c r="HH6" s="52"/>
+      <c r="HI6" s="52"/>
+      <c r="HJ6" s="52"/>
+      <c r="HK6" s="52"/>
+      <c r="HL6" s="52"/>
+      <c r="HM6" s="52"/>
+      <c r="HN6" s="52"/>
+      <c r="HO6" s="52"/>
+      <c r="HP6" s="52"/>
+      <c r="HQ6" s="52"/>
+      <c r="HR6" s="52"/>
+      <c r="HS6" s="52"/>
+      <c r="HT6" s="52"/>
+      <c r="HU6" s="52"/>
+      <c r="HV6" s="52"/>
+      <c r="HW6" s="52"/>
+      <c r="HX6" s="52"/>
+      <c r="HY6" s="52"/>
+      <c r="HZ6" s="52"/>
+      <c r="IA6" s="52"/>
+      <c r="IB6" s="52"/>
+      <c r="IC6" s="52"/>
+      <c r="ID6" s="52"/>
+      <c r="IE6" s="52"/>
+      <c r="IF6" s="52"/>
+      <c r="IG6" s="52"/>
+      <c r="IH6" s="52"/>
+      <c r="II6" s="52"/>
+      <c r="IJ6" s="52"/>
+      <c r="IK6" s="52"/>
+      <c r="IL6" s="52"/>
+      <c r="IM6" s="52"/>
+      <c r="IN6" s="52"/>
+      <c r="IO6" s="52"/>
+      <c r="IP6" s="52"/>
+      <c r="IQ6" s="52"/>
+      <c r="IR6" s="52"/>
+      <c r="IS6" s="52"/>
+      <c r="IT6" s="52"/>
+      <c r="IU6" s="52"/>
+      <c r="IV6" s="52"/>
+      <c r="IW6" s="52"/>
+      <c r="IX6" s="52"/>
+      <c r="IY6" s="52"/>
+      <c r="IZ6" s="52"/>
+      <c r="JA6" s="52"/>
+      <c r="JB6" s="52"/>
+      <c r="JC6" s="52"/>
+      <c r="JD6" s="52"/>
+      <c r="JE6" s="52"/>
+      <c r="JF6" s="52"/>
+      <c r="JG6" s="52"/>
+      <c r="JH6" s="52"/>
+      <c r="JI6" s="52"/>
+      <c r="JJ6" s="52"/>
+      <c r="JK6" s="52"/>
+      <c r="JL6" s="52"/>
+      <c r="JM6" s="52"/>
+      <c r="JN6" s="52"/>
+      <c r="JO6" s="52"/>
+      <c r="JP6" s="52"/>
+      <c r="JQ6" s="52"/>
+      <c r="JR6" s="52"/>
+      <c r="JS6" s="52"/>
+      <c r="JT6" s="52"/>
+      <c r="JU6" s="52"/>
+      <c r="JV6" s="52"/>
+      <c r="JW6" s="52"/>
+      <c r="JX6" s="52"/>
+      <c r="JY6" s="52"/>
+      <c r="JZ6" s="52"/>
+      <c r="KA6" s="52"/>
+      <c r="KB6" s="52"/>
+      <c r="KC6" s="52"/>
+      <c r="KD6" s="52"/>
+      <c r="KE6" s="52"/>
+      <c r="KF6" s="52"/>
+      <c r="KG6" s="52"/>
+      <c r="KH6" s="52"/>
+      <c r="KI6" s="52"/>
+      <c r="KJ6" s="52"/>
+      <c r="KK6" s="52"/>
+      <c r="KL6" s="52"/>
+      <c r="KM6" s="52"/>
+      <c r="KN6" s="52"/>
+      <c r="KO6" s="52"/>
+      <c r="KP6" s="52"/>
+      <c r="KQ6" s="52"/>
+      <c r="KR6" s="52"/>
+      <c r="KS6" s="52"/>
+      <c r="KT6" s="52"/>
+      <c r="KU6" s="52"/>
+      <c r="KV6" s="52"/>
+      <c r="KW6" s="52"/>
+      <c r="KX6" s="52"/>
+      <c r="KY6" s="52"/>
+      <c r="KZ6" s="52"/>
+      <c r="LA6" s="52"/>
+      <c r="LB6" s="52"/>
+      <c r="LC6" s="52"/>
+      <c r="LD6" s="52"/>
+      <c r="LE6" s="52"/>
+      <c r="LF6" s="52"/>
+      <c r="LG6" s="52"/>
+      <c r="LH6" s="52"/>
+      <c r="LI6" s="52"/>
+      <c r="LJ6" s="52"/>
+      <c r="LK6" s="52"/>
+      <c r="LL6" s="52"/>
+      <c r="LM6" s="52"/>
+      <c r="LN6" s="52"/>
+      <c r="LO6" s="52"/>
+      <c r="LP6" s="52"/>
+      <c r="LQ6" s="52"/>
+      <c r="LR6" s="52"/>
+      <c r="LS6" s="52"/>
+      <c r="LT6" s="52"/>
+    </row>
+    <row r="7" spans="1:332" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29">
+        <v>57</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="52"/>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52"/>
+      <c r="BL7" s="52"/>
+      <c r="BM7" s="52"/>
+      <c r="BN7" s="52"/>
+      <c r="BO7" s="52"/>
+      <c r="BP7" s="52"/>
+      <c r="BQ7" s="52"/>
+      <c r="BR7" s="52"/>
+      <c r="BS7" s="52"/>
+      <c r="BT7" s="52"/>
+      <c r="BU7" s="52"/>
+      <c r="BV7" s="52"/>
+      <c r="BW7" s="52"/>
+      <c r="BX7" s="52"/>
+      <c r="BY7" s="52"/>
+      <c r="BZ7" s="52"/>
+      <c r="CA7" s="52"/>
+      <c r="CB7" s="52"/>
+      <c r="CC7" s="52"/>
+      <c r="CD7" s="52"/>
+      <c r="CE7" s="52"/>
+      <c r="CF7" s="52"/>
+      <c r="CG7" s="52"/>
+      <c r="CH7" s="52"/>
+      <c r="CI7" s="52"/>
+      <c r="CJ7" s="52"/>
+      <c r="CK7" s="52"/>
+      <c r="CL7" s="52"/>
+      <c r="CM7" s="52"/>
+      <c r="CN7" s="52"/>
+      <c r="CO7" s="52"/>
+      <c r="CP7" s="52"/>
+      <c r="CQ7" s="52"/>
+      <c r="CR7" s="52"/>
+      <c r="CS7" s="52"/>
+      <c r="CT7" s="52"/>
+      <c r="CU7" s="52"/>
+      <c r="CV7" s="52"/>
+      <c r="CW7" s="52"/>
+      <c r="CX7" s="52"/>
+      <c r="CY7" s="52"/>
+      <c r="CZ7" s="52"/>
+      <c r="DA7" s="52"/>
+      <c r="DB7" s="52"/>
+      <c r="DC7" s="52"/>
+      <c r="DD7" s="52"/>
+      <c r="DE7" s="52"/>
+      <c r="DF7" s="52"/>
+      <c r="DG7" s="52"/>
+      <c r="DH7" s="52"/>
+      <c r="DI7" s="52"/>
+      <c r="DJ7" s="52"/>
+      <c r="DK7" s="52"/>
+      <c r="DL7" s="52"/>
+      <c r="DM7" s="52"/>
+      <c r="DN7" s="52"/>
+      <c r="DO7" s="52"/>
+      <c r="DP7" s="52"/>
+      <c r="DQ7" s="52"/>
+      <c r="DR7" s="52"/>
+      <c r="DS7" s="52"/>
+      <c r="DT7" s="52"/>
+      <c r="DU7" s="52"/>
+      <c r="DV7" s="52"/>
+      <c r="DW7" s="52"/>
+      <c r="DX7" s="52"/>
+      <c r="DY7" s="52"/>
+      <c r="DZ7" s="52"/>
+      <c r="EA7" s="52"/>
+      <c r="EB7" s="52"/>
+      <c r="EC7" s="52"/>
+      <c r="ED7" s="52"/>
+      <c r="EE7" s="52"/>
+      <c r="EF7" s="52"/>
+      <c r="EG7" s="52"/>
+      <c r="EH7" s="52"/>
+      <c r="EI7" s="52"/>
+      <c r="EJ7" s="52"/>
+      <c r="EK7" s="52"/>
+      <c r="EL7" s="52"/>
+      <c r="EM7" s="52"/>
+      <c r="EN7" s="52"/>
+      <c r="EO7" s="52"/>
+      <c r="EP7" s="52"/>
+      <c r="EQ7" s="52"/>
+      <c r="ER7" s="52"/>
+      <c r="ES7" s="52"/>
+      <c r="ET7" s="52"/>
+      <c r="EU7" s="52"/>
+      <c r="EV7" s="52"/>
+      <c r="EW7" s="52"/>
+      <c r="EX7" s="52"/>
+      <c r="EY7" s="52"/>
+      <c r="EZ7" s="52"/>
+      <c r="FA7" s="52"/>
+      <c r="FB7" s="52"/>
+      <c r="FC7" s="52"/>
+      <c r="FD7" s="52"/>
+      <c r="FE7" s="52"/>
+      <c r="FF7" s="52"/>
+      <c r="FG7" s="52"/>
+      <c r="FH7" s="52"/>
+      <c r="FI7" s="52"/>
+      <c r="FJ7" s="52"/>
+      <c r="FK7" s="52"/>
+      <c r="FL7" s="52"/>
+      <c r="FM7" s="52"/>
+      <c r="FN7" s="52"/>
+      <c r="FO7" s="52"/>
+      <c r="FP7" s="52"/>
+      <c r="FQ7" s="52"/>
+      <c r="FR7" s="52"/>
+      <c r="FS7" s="52"/>
+      <c r="FT7" s="52"/>
+      <c r="FU7" s="52"/>
+      <c r="FV7" s="52"/>
+      <c r="FW7" s="52"/>
+      <c r="FX7" s="52"/>
+      <c r="FY7" s="52"/>
+      <c r="FZ7" s="52"/>
+      <c r="GA7" s="52"/>
+      <c r="GB7" s="52"/>
+      <c r="GC7" s="52"/>
+      <c r="GD7" s="52"/>
+      <c r="GE7" s="52"/>
+      <c r="GF7" s="52"/>
+      <c r="GG7" s="52"/>
+      <c r="GH7" s="52"/>
+      <c r="GI7" s="52"/>
+      <c r="GJ7" s="52"/>
+      <c r="GK7" s="52"/>
+      <c r="GL7" s="52"/>
+      <c r="GM7" s="52"/>
+      <c r="GN7" s="52"/>
+      <c r="GO7" s="52"/>
+      <c r="GP7" s="52"/>
+      <c r="GQ7" s="52"/>
+      <c r="GR7" s="52"/>
+      <c r="GS7" s="52"/>
+      <c r="GT7" s="52"/>
+      <c r="GU7" s="52"/>
+      <c r="GV7" s="52"/>
+      <c r="GW7" s="52"/>
+      <c r="GX7" s="52"/>
+      <c r="GY7" s="52"/>
+      <c r="GZ7" s="52"/>
+      <c r="HA7" s="52"/>
+      <c r="HB7" s="52"/>
+      <c r="HC7" s="52"/>
+      <c r="HD7" s="52"/>
+      <c r="HE7" s="52"/>
+      <c r="HF7" s="52"/>
+      <c r="HG7" s="52"/>
+      <c r="HH7" s="52"/>
+      <c r="HI7" s="52"/>
+      <c r="HJ7" s="52"/>
+      <c r="HK7" s="52"/>
+      <c r="HL7" s="52"/>
+      <c r="HM7" s="52"/>
+      <c r="HN7" s="52"/>
+      <c r="HO7" s="52"/>
+      <c r="HP7" s="52"/>
+      <c r="HQ7" s="52"/>
+      <c r="HR7" s="52"/>
+      <c r="HS7" s="52"/>
+      <c r="HT7" s="52"/>
+      <c r="HU7" s="52"/>
+      <c r="HV7" s="52"/>
+      <c r="HW7" s="52"/>
+      <c r="HX7" s="52"/>
+      <c r="HY7" s="52"/>
+      <c r="HZ7" s="52"/>
+      <c r="IA7" s="52"/>
+      <c r="IB7" s="52"/>
+      <c r="IC7" s="52"/>
+      <c r="ID7" s="52"/>
+      <c r="IE7" s="52"/>
+      <c r="IF7" s="52"/>
+      <c r="IG7" s="52"/>
+      <c r="IH7" s="52"/>
+      <c r="II7" s="52"/>
+      <c r="IJ7" s="52"/>
+      <c r="IK7" s="52"/>
+      <c r="IL7" s="52"/>
+      <c r="IM7" s="52"/>
+      <c r="IN7" s="52"/>
+      <c r="IO7" s="52"/>
+      <c r="IP7" s="52"/>
+      <c r="IQ7" s="52"/>
+      <c r="IR7" s="52"/>
+      <c r="IS7" s="52"/>
+      <c r="IT7" s="52"/>
+      <c r="IU7" s="52"/>
+      <c r="IV7" s="52"/>
+      <c r="IW7" s="52"/>
+      <c r="IX7" s="52"/>
+      <c r="IY7" s="52"/>
+      <c r="IZ7" s="52"/>
+      <c r="JA7" s="52"/>
+      <c r="JB7" s="52"/>
+      <c r="JC7" s="52"/>
+      <c r="JD7" s="52"/>
+      <c r="JE7" s="52"/>
+      <c r="JF7" s="52"/>
+      <c r="JG7" s="52"/>
+      <c r="JH7" s="52"/>
+      <c r="JI7" s="52"/>
+      <c r="JJ7" s="52"/>
+      <c r="JK7" s="52"/>
+      <c r="JL7" s="52"/>
+      <c r="JM7" s="52"/>
+      <c r="JN7" s="52"/>
+      <c r="JO7" s="52"/>
+      <c r="JP7" s="52"/>
+      <c r="JQ7" s="52"/>
+      <c r="JR7" s="52"/>
+      <c r="JS7" s="52"/>
+      <c r="JT7" s="52"/>
+      <c r="JU7" s="52"/>
+      <c r="JV7" s="52"/>
+      <c r="JW7" s="52"/>
+      <c r="JX7" s="52"/>
+      <c r="JY7" s="52"/>
+      <c r="JZ7" s="52"/>
+      <c r="KA7" s="52"/>
+      <c r="KB7" s="52"/>
+      <c r="KC7" s="52"/>
+      <c r="KD7" s="52"/>
+      <c r="KE7" s="52"/>
+      <c r="KF7" s="52"/>
+      <c r="KG7" s="52"/>
+      <c r="KH7" s="52"/>
+      <c r="KI7" s="52"/>
+      <c r="KJ7" s="52"/>
+      <c r="KK7" s="52"/>
+      <c r="KL7" s="52"/>
+      <c r="KM7" s="52"/>
+      <c r="KN7" s="52"/>
+      <c r="KO7" s="52"/>
+      <c r="KP7" s="52"/>
+      <c r="KQ7" s="52"/>
+      <c r="KR7" s="52"/>
+      <c r="KS7" s="52"/>
+      <c r="KT7" s="52"/>
+      <c r="KU7" s="52"/>
+      <c r="KV7" s="52"/>
+      <c r="KW7" s="52"/>
+      <c r="KX7" s="52"/>
+      <c r="KY7" s="52"/>
+      <c r="KZ7" s="52"/>
+      <c r="LA7" s="52"/>
+      <c r="LB7" s="52"/>
+      <c r="LC7" s="52"/>
+      <c r="LD7" s="52"/>
+      <c r="LE7" s="52"/>
+      <c r="LF7" s="52"/>
+      <c r="LG7" s="52"/>
+      <c r="LH7" s="52"/>
+      <c r="LI7" s="52"/>
+      <c r="LJ7" s="52"/>
+      <c r="LK7" s="52"/>
+      <c r="LL7" s="52"/>
+      <c r="LM7" s="52"/>
+      <c r="LN7" s="52"/>
+      <c r="LO7" s="52"/>
+      <c r="LP7" s="52"/>
+      <c r="LQ7" s="52"/>
+      <c r="LR7" s="52"/>
+      <c r="LS7" s="52"/>
+      <c r="LT7" s="52"/>
+    </row>
+    <row r="8" spans="1:332" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>12</v>
@@ -1390,24 +3858,345 @@
       <c r="G8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="29"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="52"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="52"/>
+      <c r="AX8" s="52"/>
+      <c r="AY8" s="52"/>
+      <c r="AZ8" s="52"/>
+      <c r="BA8" s="52"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="52"/>
+      <c r="BM8" s="52"/>
+      <c r="BN8" s="52"/>
+      <c r="BO8" s="52"/>
+      <c r="BP8" s="52"/>
+      <c r="BQ8" s="52"/>
+      <c r="BR8" s="52"/>
+      <c r="BS8" s="52"/>
+      <c r="BT8" s="52"/>
+      <c r="BU8" s="52"/>
+      <c r="BV8" s="52"/>
+      <c r="BW8" s="52"/>
+      <c r="BX8" s="52"/>
+      <c r="BY8" s="52"/>
+      <c r="BZ8" s="52"/>
+      <c r="CA8" s="52"/>
+      <c r="CB8" s="52"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="52"/>
+      <c r="CG8" s="52"/>
+      <c r="CH8" s="52"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="52"/>
+      <c r="CK8" s="52"/>
+      <c r="CL8" s="52"/>
+      <c r="CM8" s="52"/>
+      <c r="CN8" s="52"/>
+      <c r="CO8" s="52"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="52"/>
+      <c r="CR8" s="52"/>
+      <c r="CS8" s="52"/>
+      <c r="CT8" s="52"/>
+      <c r="CU8" s="52"/>
+      <c r="CV8" s="52"/>
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
+      <c r="DA8" s="52"/>
+      <c r="DB8" s="52"/>
+      <c r="DC8" s="52"/>
+      <c r="DD8" s="52"/>
+      <c r="DE8" s="52"/>
+      <c r="DF8" s="52"/>
+      <c r="DG8" s="52"/>
+      <c r="DH8" s="52"/>
+      <c r="DI8" s="52"/>
+      <c r="DJ8" s="52"/>
+      <c r="DK8" s="52"/>
+      <c r="DL8" s="52"/>
+      <c r="DM8" s="52"/>
+      <c r="DN8" s="52"/>
+      <c r="DO8" s="52"/>
+      <c r="DP8" s="52"/>
+      <c r="DQ8" s="52"/>
+      <c r="DR8" s="52"/>
+      <c r="DS8" s="52"/>
+      <c r="DT8" s="52"/>
+      <c r="DU8" s="52"/>
+      <c r="DV8" s="52"/>
+      <c r="DW8" s="52"/>
+      <c r="DX8" s="52"/>
+      <c r="DY8" s="52"/>
+      <c r="DZ8" s="52"/>
+      <c r="EA8" s="52"/>
+      <c r="EB8" s="52"/>
+      <c r="EC8" s="52"/>
+      <c r="ED8" s="52"/>
+      <c r="EE8" s="52"/>
+      <c r="EF8" s="52"/>
+      <c r="EG8" s="52"/>
+      <c r="EH8" s="52"/>
+      <c r="EI8" s="52"/>
+      <c r="EJ8" s="52"/>
+      <c r="EK8" s="52"/>
+      <c r="EL8" s="52"/>
+      <c r="EM8" s="52"/>
+      <c r="EN8" s="52"/>
+      <c r="EO8" s="52"/>
+      <c r="EP8" s="52"/>
+      <c r="EQ8" s="52"/>
+      <c r="ER8" s="52"/>
+      <c r="ES8" s="52"/>
+      <c r="ET8" s="52"/>
+      <c r="EU8" s="52"/>
+      <c r="EV8" s="52"/>
+      <c r="EW8" s="52"/>
+      <c r="EX8" s="52"/>
+      <c r="EY8" s="52"/>
+      <c r="EZ8" s="52"/>
+      <c r="FA8" s="52"/>
+      <c r="FB8" s="52"/>
+      <c r="FC8" s="52"/>
+      <c r="FD8" s="52"/>
+      <c r="FE8" s="52"/>
+      <c r="FF8" s="52"/>
+      <c r="FG8" s="52"/>
+      <c r="FH8" s="52"/>
+      <c r="FI8" s="52"/>
+      <c r="FJ8" s="52"/>
+      <c r="FK8" s="52"/>
+      <c r="FL8" s="52"/>
+      <c r="FM8" s="52"/>
+      <c r="FN8" s="52"/>
+      <c r="FO8" s="52"/>
+      <c r="FP8" s="52"/>
+      <c r="FQ8" s="52"/>
+      <c r="FR8" s="52"/>
+      <c r="FS8" s="52"/>
+      <c r="FT8" s="52"/>
+      <c r="FU8" s="52"/>
+      <c r="FV8" s="52"/>
+      <c r="FW8" s="52"/>
+      <c r="FX8" s="52"/>
+      <c r="FY8" s="52"/>
+      <c r="FZ8" s="52"/>
+      <c r="GA8" s="52"/>
+      <c r="GB8" s="52"/>
+      <c r="GC8" s="52"/>
+      <c r="GD8" s="52"/>
+      <c r="GE8" s="52"/>
+      <c r="GF8" s="52"/>
+      <c r="GG8" s="52"/>
+      <c r="GH8" s="52"/>
+      <c r="GI8" s="52"/>
+      <c r="GJ8" s="52"/>
+      <c r="GK8" s="52"/>
+      <c r="GL8" s="52"/>
+      <c r="GM8" s="52"/>
+      <c r="GN8" s="52"/>
+      <c r="GO8" s="52"/>
+      <c r="GP8" s="52"/>
+      <c r="GQ8" s="52"/>
+      <c r="GR8" s="52"/>
+      <c r="GS8" s="52"/>
+      <c r="GT8" s="52"/>
+      <c r="GU8" s="52"/>
+      <c r="GV8" s="52"/>
+      <c r="GW8" s="52"/>
+      <c r="GX8" s="52"/>
+      <c r="GY8" s="52"/>
+      <c r="GZ8" s="52"/>
+      <c r="HA8" s="52"/>
+      <c r="HB8" s="52"/>
+      <c r="HC8" s="52"/>
+      <c r="HD8" s="52"/>
+      <c r="HE8" s="52"/>
+      <c r="HF8" s="52"/>
+      <c r="HG8" s="52"/>
+      <c r="HH8" s="52"/>
+      <c r="HI8" s="52"/>
+      <c r="HJ8" s="52"/>
+      <c r="HK8" s="52"/>
+      <c r="HL8" s="52"/>
+      <c r="HM8" s="52"/>
+      <c r="HN8" s="52"/>
+      <c r="HO8" s="52"/>
+      <c r="HP8" s="52"/>
+      <c r="HQ8" s="52"/>
+      <c r="HR8" s="52"/>
+      <c r="HS8" s="52"/>
+      <c r="HT8" s="52"/>
+      <c r="HU8" s="52"/>
+      <c r="HV8" s="52"/>
+      <c r="HW8" s="52"/>
+      <c r="HX8" s="52"/>
+      <c r="HY8" s="52"/>
+      <c r="HZ8" s="52"/>
+      <c r="IA8" s="52"/>
+      <c r="IB8" s="52"/>
+      <c r="IC8" s="52"/>
+      <c r="ID8" s="52"/>
+      <c r="IE8" s="52"/>
+      <c r="IF8" s="52"/>
+      <c r="IG8" s="52"/>
+      <c r="IH8" s="52"/>
+      <c r="II8" s="52"/>
+      <c r="IJ8" s="52"/>
+      <c r="IK8" s="52"/>
+      <c r="IL8" s="52"/>
+      <c r="IM8" s="52"/>
+      <c r="IN8" s="52"/>
+      <c r="IO8" s="52"/>
+      <c r="IP8" s="52"/>
+      <c r="IQ8" s="52"/>
+      <c r="IR8" s="52"/>
+      <c r="IS8" s="52"/>
+      <c r="IT8" s="52"/>
+      <c r="IU8" s="52"/>
+      <c r="IV8" s="52"/>
+      <c r="IW8" s="52"/>
+      <c r="IX8" s="52"/>
+      <c r="IY8" s="52"/>
+      <c r="IZ8" s="52"/>
+      <c r="JA8" s="52"/>
+      <c r="JB8" s="52"/>
+      <c r="JC8" s="52"/>
+      <c r="JD8" s="52"/>
+      <c r="JE8" s="52"/>
+      <c r="JF8" s="52"/>
+      <c r="JG8" s="52"/>
+      <c r="JH8" s="52"/>
+      <c r="JI8" s="52"/>
+      <c r="JJ8" s="52"/>
+      <c r="JK8" s="52"/>
+      <c r="JL8" s="52"/>
+      <c r="JM8" s="52"/>
+      <c r="JN8" s="52"/>
+      <c r="JO8" s="52"/>
+      <c r="JP8" s="52"/>
+      <c r="JQ8" s="52"/>
+      <c r="JR8" s="52"/>
+      <c r="JS8" s="52"/>
+      <c r="JT8" s="52"/>
+      <c r="JU8" s="52"/>
+      <c r="JV8" s="52"/>
+      <c r="JW8" s="52"/>
+      <c r="JX8" s="52"/>
+      <c r="JY8" s="52"/>
+      <c r="JZ8" s="52"/>
+      <c r="KA8" s="52"/>
+      <c r="KB8" s="52"/>
+      <c r="KC8" s="52"/>
+      <c r="KD8" s="52"/>
+      <c r="KE8" s="52"/>
+      <c r="KF8" s="52"/>
+      <c r="KG8" s="52"/>
+      <c r="KH8" s="52"/>
+      <c r="KI8" s="52"/>
+      <c r="KJ8" s="52"/>
+      <c r="KK8" s="52"/>
+      <c r="KL8" s="52"/>
+      <c r="KM8" s="52"/>
+      <c r="KN8" s="52"/>
+      <c r="KO8" s="52"/>
+      <c r="KP8" s="52"/>
+      <c r="KQ8" s="52"/>
+      <c r="KR8" s="52"/>
+      <c r="KS8" s="52"/>
+      <c r="KT8" s="52"/>
+      <c r="KU8" s="52"/>
+      <c r="KV8" s="52"/>
+      <c r="KW8" s="52"/>
+      <c r="KX8" s="52"/>
+      <c r="KY8" s="52"/>
+      <c r="KZ8" s="52"/>
+      <c r="LA8" s="52"/>
+      <c r="LB8" s="52"/>
+      <c r="LC8" s="52"/>
+      <c r="LD8" s="52"/>
+      <c r="LE8" s="52"/>
+      <c r="LF8" s="52"/>
+      <c r="LG8" s="52"/>
+      <c r="LH8" s="52"/>
+      <c r="LI8" s="52"/>
+      <c r="LJ8" s="52"/>
+      <c r="LK8" s="52"/>
+      <c r="LL8" s="52"/>
+      <c r="LM8" s="52"/>
+      <c r="LN8" s="52"/>
+      <c r="LO8" s="52"/>
+      <c r="LP8" s="52"/>
+      <c r="LQ8" s="52"/>
+      <c r="LR8" s="52"/>
+      <c r="LS8" s="52"/>
+      <c r="LT8" s="52"/>
+    </row>
+    <row r="9" spans="1:332" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="29">
-        <v>58</v>
-      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" s="29" t="s">
         <v>12</v>
@@ -1415,170 +4204,1781 @@
       <c r="G9" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="29"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52"/>
+      <c r="BO9" s="52"/>
+      <c r="BP9" s="52"/>
+      <c r="BQ9" s="52"/>
+      <c r="BR9" s="52"/>
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="52"/>
+      <c r="BU9" s="52"/>
+      <c r="BV9" s="52"/>
+      <c r="BW9" s="52"/>
+      <c r="BX9" s="52"/>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="52"/>
+      <c r="CA9" s="52"/>
+      <c r="CB9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="52"/>
+      <c r="CG9" s="52"/>
+      <c r="CH9" s="52"/>
+      <c r="CI9" s="52"/>
+      <c r="CJ9" s="52"/>
+      <c r="CK9" s="52"/>
+      <c r="CL9" s="52"/>
+      <c r="CM9" s="52"/>
+      <c r="CN9" s="52"/>
+      <c r="CO9" s="52"/>
+      <c r="CP9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CR9" s="52"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="52"/>
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
+      <c r="DA9" s="52"/>
+      <c r="DB9" s="52"/>
+      <c r="DC9" s="52"/>
+      <c r="DD9" s="52"/>
+      <c r="DE9" s="52"/>
+      <c r="DF9" s="52"/>
+      <c r="DG9" s="52"/>
+      <c r="DH9" s="52"/>
+      <c r="DI9" s="52"/>
+      <c r="DJ9" s="52"/>
+      <c r="DK9" s="52"/>
+      <c r="DL9" s="52"/>
+      <c r="DM9" s="52"/>
+      <c r="DN9" s="52"/>
+      <c r="DO9" s="52"/>
+      <c r="DP9" s="52"/>
+      <c r="DQ9" s="52"/>
+      <c r="DR9" s="52"/>
+      <c r="DS9" s="52"/>
+      <c r="DT9" s="52"/>
+      <c r="DU9" s="52"/>
+      <c r="DV9" s="52"/>
+      <c r="DW9" s="52"/>
+      <c r="DX9" s="52"/>
+      <c r="DY9" s="52"/>
+      <c r="DZ9" s="52"/>
+      <c r="EA9" s="52"/>
+      <c r="EB9" s="52"/>
+      <c r="EC9" s="52"/>
+      <c r="ED9" s="52"/>
+      <c r="EE9" s="52"/>
+      <c r="EF9" s="52"/>
+      <c r="EG9" s="52"/>
+      <c r="EH9" s="52"/>
+      <c r="EI9" s="52"/>
+      <c r="EJ9" s="52"/>
+      <c r="EK9" s="52"/>
+      <c r="EL9" s="52"/>
+      <c r="EM9" s="52"/>
+      <c r="EN9" s="52"/>
+      <c r="EO9" s="52"/>
+      <c r="EP9" s="52"/>
+      <c r="EQ9" s="52"/>
+      <c r="ER9" s="52"/>
+      <c r="ES9" s="52"/>
+      <c r="ET9" s="52"/>
+      <c r="EU9" s="52"/>
+      <c r="EV9" s="52"/>
+      <c r="EW9" s="52"/>
+      <c r="EX9" s="52"/>
+      <c r="EY9" s="52"/>
+      <c r="EZ9" s="52"/>
+      <c r="FA9" s="52"/>
+      <c r="FB9" s="52"/>
+      <c r="FC9" s="52"/>
+      <c r="FD9" s="52"/>
+      <c r="FE9" s="52"/>
+      <c r="FF9" s="52"/>
+      <c r="FG9" s="52"/>
+      <c r="FH9" s="52"/>
+      <c r="FI9" s="52"/>
+      <c r="FJ9" s="52"/>
+      <c r="FK9" s="52"/>
+      <c r="FL9" s="52"/>
+      <c r="FM9" s="52"/>
+      <c r="FN9" s="52"/>
+      <c r="FO9" s="52"/>
+      <c r="FP9" s="52"/>
+      <c r="FQ9" s="52"/>
+      <c r="FR9" s="52"/>
+      <c r="FS9" s="52"/>
+      <c r="FT9" s="52"/>
+      <c r="FU9" s="52"/>
+      <c r="FV9" s="52"/>
+      <c r="FW9" s="52"/>
+      <c r="FX9" s="52"/>
+      <c r="FY9" s="52"/>
+      <c r="FZ9" s="52"/>
+      <c r="GA9" s="52"/>
+      <c r="GB9" s="52"/>
+      <c r="GC9" s="52"/>
+      <c r="GD9" s="52"/>
+      <c r="GE9" s="52"/>
+      <c r="GF9" s="52"/>
+      <c r="GG9" s="52"/>
+      <c r="GH9" s="52"/>
+      <c r="GI9" s="52"/>
+      <c r="GJ9" s="52"/>
+      <c r="GK9" s="52"/>
+      <c r="GL9" s="52"/>
+      <c r="GM9" s="52"/>
+      <c r="GN9" s="52"/>
+      <c r="GO9" s="52"/>
+      <c r="GP9" s="52"/>
+      <c r="GQ9" s="52"/>
+      <c r="GR9" s="52"/>
+      <c r="GS9" s="52"/>
+      <c r="GT9" s="52"/>
+      <c r="GU9" s="52"/>
+      <c r="GV9" s="52"/>
+      <c r="GW9" s="52"/>
+      <c r="GX9" s="52"/>
+      <c r="GY9" s="52"/>
+      <c r="GZ9" s="52"/>
+      <c r="HA9" s="52"/>
+      <c r="HB9" s="52"/>
+      <c r="HC9" s="52"/>
+      <c r="HD9" s="52"/>
+      <c r="HE9" s="52"/>
+      <c r="HF9" s="52"/>
+      <c r="HG9" s="52"/>
+      <c r="HH9" s="52"/>
+      <c r="HI9" s="52"/>
+      <c r="HJ9" s="52"/>
+      <c r="HK9" s="52"/>
+      <c r="HL9" s="52"/>
+      <c r="HM9" s="52"/>
+      <c r="HN9" s="52"/>
+      <c r="HO9" s="52"/>
+      <c r="HP9" s="52"/>
+      <c r="HQ9" s="52"/>
+      <c r="HR9" s="52"/>
+      <c r="HS9" s="52"/>
+      <c r="HT9" s="52"/>
+      <c r="HU9" s="52"/>
+      <c r="HV9" s="52"/>
+      <c r="HW9" s="52"/>
+      <c r="HX9" s="52"/>
+      <c r="HY9" s="52"/>
+      <c r="HZ9" s="52"/>
+      <c r="IA9" s="52"/>
+      <c r="IB9" s="52"/>
+      <c r="IC9" s="52"/>
+      <c r="ID9" s="52"/>
+      <c r="IE9" s="52"/>
+      <c r="IF9" s="52"/>
+      <c r="IG9" s="52"/>
+      <c r="IH9" s="52"/>
+      <c r="II9" s="52"/>
+      <c r="IJ9" s="52"/>
+      <c r="IK9" s="52"/>
+      <c r="IL9" s="52"/>
+      <c r="IM9" s="52"/>
+      <c r="IN9" s="52"/>
+      <c r="IO9" s="52"/>
+      <c r="IP9" s="52"/>
+      <c r="IQ9" s="52"/>
+      <c r="IR9" s="52"/>
+      <c r="IS9" s="52"/>
+      <c r="IT9" s="52"/>
+      <c r="IU9" s="52"/>
+      <c r="IV9" s="52"/>
+      <c r="IW9" s="52"/>
+      <c r="IX9" s="52"/>
+      <c r="IY9" s="52"/>
+      <c r="IZ9" s="52"/>
+      <c r="JA9" s="52"/>
+      <c r="JB9" s="52"/>
+      <c r="JC9" s="52"/>
+      <c r="JD9" s="52"/>
+      <c r="JE9" s="52"/>
+      <c r="JF9" s="52"/>
+      <c r="JG9" s="52"/>
+      <c r="JH9" s="52"/>
+      <c r="JI9" s="52"/>
+      <c r="JJ9" s="52"/>
+      <c r="JK9" s="52"/>
+      <c r="JL9" s="52"/>
+      <c r="JM9" s="52"/>
+      <c r="JN9" s="52"/>
+      <c r="JO9" s="52"/>
+      <c r="JP9" s="52"/>
+      <c r="JQ9" s="52"/>
+      <c r="JR9" s="52"/>
+      <c r="JS9" s="52"/>
+      <c r="JT9" s="52"/>
+      <c r="JU9" s="52"/>
+      <c r="JV9" s="52"/>
+      <c r="JW9" s="52"/>
+      <c r="JX9" s="52"/>
+      <c r="JY9" s="52"/>
+      <c r="JZ9" s="52"/>
+      <c r="KA9" s="52"/>
+      <c r="KB9" s="52"/>
+      <c r="KC9" s="52"/>
+      <c r="KD9" s="52"/>
+      <c r="KE9" s="52"/>
+      <c r="KF9" s="52"/>
+      <c r="KG9" s="52"/>
+      <c r="KH9" s="52"/>
+      <c r="KI9" s="52"/>
+      <c r="KJ9" s="52"/>
+      <c r="KK9" s="52"/>
+      <c r="KL9" s="52"/>
+      <c r="KM9" s="52"/>
+      <c r="KN9" s="52"/>
+      <c r="KO9" s="52"/>
+      <c r="KP9" s="52"/>
+      <c r="KQ9" s="52"/>
+      <c r="KR9" s="52"/>
+      <c r="KS9" s="52"/>
+      <c r="KT9" s="52"/>
+      <c r="KU9" s="52"/>
+      <c r="KV9" s="52"/>
+      <c r="KW9" s="52"/>
+      <c r="KX9" s="52"/>
+      <c r="KY9" s="52"/>
+      <c r="KZ9" s="52"/>
+      <c r="LA9" s="52"/>
+      <c r="LB9" s="52"/>
+      <c r="LC9" s="52"/>
+      <c r="LD9" s="52"/>
+      <c r="LE9" s="52"/>
+      <c r="LF9" s="52"/>
+      <c r="LG9" s="52"/>
+      <c r="LH9" s="52"/>
+      <c r="LI9" s="52"/>
+      <c r="LJ9" s="52"/>
+      <c r="LK9" s="52"/>
+      <c r="LL9" s="52"/>
+      <c r="LM9" s="52"/>
+      <c r="LN9" s="52"/>
+      <c r="LO9" s="52"/>
+      <c r="LP9" s="52"/>
+      <c r="LQ9" s="52"/>
+      <c r="LR9" s="52"/>
+      <c r="LS9" s="52"/>
+      <c r="LT9" s="52"/>
+    </row>
+    <row r="10" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" s="29">
-        <v>0</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="29"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="52"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="52"/>
+      <c r="AV10" s="52"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="52"/>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="52"/>
+      <c r="BA10" s="52"/>
+      <c r="BB10" s="52"/>
+      <c r="BC10" s="52"/>
+      <c r="BD10" s="52"/>
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="52"/>
+      <c r="BG10" s="52"/>
+      <c r="BH10" s="52"/>
+      <c r="BI10" s="52"/>
+      <c r="BJ10" s="52"/>
+      <c r="BK10" s="52"/>
+      <c r="BL10" s="52"/>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="52"/>
+      <c r="BP10" s="52"/>
+      <c r="BQ10" s="52"/>
+      <c r="BR10" s="52"/>
+      <c r="BS10" s="52"/>
+      <c r="BT10" s="52"/>
+      <c r="BU10" s="52"/>
+      <c r="BV10" s="52"/>
+      <c r="BW10" s="52"/>
+      <c r="BX10" s="52"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="52"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="52"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="52"/>
+      <c r="CG10" s="52"/>
+      <c r="CH10" s="52"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52"/>
+      <c r="CL10" s="52"/>
+      <c r="CM10" s="52"/>
+      <c r="CN10" s="52"/>
+      <c r="CO10" s="52"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="52"/>
+      <c r="CR10" s="52"/>
+      <c r="CS10" s="52"/>
+      <c r="CT10" s="52"/>
+      <c r="CU10" s="52"/>
+      <c r="CV10" s="52"/>
+      <c r="CW10" s="52"/>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="52"/>
+      <c r="DA10" s="52"/>
+      <c r="DB10" s="52"/>
+      <c r="DC10" s="52"/>
+      <c r="DD10" s="52"/>
+      <c r="DE10" s="52"/>
+      <c r="DF10" s="52"/>
+      <c r="DG10" s="52"/>
+      <c r="DH10" s="52"/>
+      <c r="DI10" s="52"/>
+      <c r="DJ10" s="52"/>
+      <c r="DK10" s="52"/>
+      <c r="DL10" s="52"/>
+      <c r="DM10" s="52"/>
+      <c r="DN10" s="52"/>
+      <c r="DO10" s="52"/>
+      <c r="DP10" s="52"/>
+      <c r="DQ10" s="52"/>
+      <c r="DR10" s="52"/>
+      <c r="DS10" s="52"/>
+      <c r="DT10" s="52"/>
+      <c r="DU10" s="52"/>
+      <c r="DV10" s="52"/>
+      <c r="DW10" s="52"/>
+      <c r="DX10" s="52"/>
+      <c r="DY10" s="52"/>
+      <c r="DZ10" s="52"/>
+      <c r="EA10" s="52"/>
+      <c r="EB10" s="52"/>
+      <c r="EC10" s="52"/>
+      <c r="ED10" s="52"/>
+      <c r="EE10" s="52"/>
+      <c r="EF10" s="52"/>
+      <c r="EG10" s="52"/>
+      <c r="EH10" s="52"/>
+      <c r="EI10" s="52"/>
+      <c r="EJ10" s="52"/>
+      <c r="EK10" s="52"/>
+      <c r="EL10" s="52"/>
+      <c r="EM10" s="52"/>
+      <c r="EN10" s="52"/>
+      <c r="EO10" s="52"/>
+      <c r="EP10" s="52"/>
+      <c r="EQ10" s="52"/>
+      <c r="ER10" s="52"/>
+      <c r="ES10" s="52"/>
+      <c r="ET10" s="52"/>
+      <c r="EU10" s="52"/>
+      <c r="EV10" s="52"/>
+      <c r="EW10" s="52"/>
+      <c r="EX10" s="52"/>
+      <c r="EY10" s="52"/>
+      <c r="EZ10" s="52"/>
+      <c r="FA10" s="52"/>
+      <c r="FB10" s="52"/>
+      <c r="FC10" s="52"/>
+      <c r="FD10" s="52"/>
+      <c r="FE10" s="52"/>
+      <c r="FF10" s="52"/>
+      <c r="FG10" s="52"/>
+      <c r="FH10" s="52"/>
+      <c r="FI10" s="52"/>
+      <c r="FJ10" s="52"/>
+      <c r="FK10" s="52"/>
+      <c r="FL10" s="52"/>
+      <c r="FM10" s="52"/>
+      <c r="FN10" s="52"/>
+      <c r="FO10" s="52"/>
+      <c r="FP10" s="52"/>
+      <c r="FQ10" s="52"/>
+      <c r="FR10" s="52"/>
+      <c r="FS10" s="52"/>
+      <c r="FT10" s="52"/>
+      <c r="FU10" s="52"/>
+      <c r="FV10" s="52"/>
+      <c r="FW10" s="52"/>
+      <c r="FX10" s="52"/>
+      <c r="FY10" s="52"/>
+      <c r="FZ10" s="52"/>
+      <c r="GA10" s="52"/>
+      <c r="GB10" s="52"/>
+      <c r="GC10" s="52"/>
+      <c r="GD10" s="52"/>
+      <c r="GE10" s="52"/>
+      <c r="GF10" s="52"/>
+      <c r="GG10" s="52"/>
+      <c r="GH10" s="52"/>
+      <c r="GI10" s="52"/>
+      <c r="GJ10" s="52"/>
+      <c r="GK10" s="52"/>
+      <c r="GL10" s="52"/>
+      <c r="GM10" s="52"/>
+      <c r="GN10" s="52"/>
+      <c r="GO10" s="52"/>
+      <c r="GP10" s="52"/>
+      <c r="GQ10" s="52"/>
+      <c r="GR10" s="52"/>
+      <c r="GS10" s="52"/>
+      <c r="GT10" s="52"/>
+      <c r="GU10" s="52"/>
+      <c r="GV10" s="52"/>
+      <c r="GW10" s="52"/>
+      <c r="GX10" s="52"/>
+      <c r="GY10" s="52"/>
+      <c r="GZ10" s="52"/>
+      <c r="HA10" s="52"/>
+      <c r="HB10" s="52"/>
+      <c r="HC10" s="52"/>
+      <c r="HD10" s="52"/>
+      <c r="HE10" s="52"/>
+      <c r="HF10" s="52"/>
+      <c r="HG10" s="52"/>
+      <c r="HH10" s="52"/>
+      <c r="HI10" s="52"/>
+      <c r="HJ10" s="52"/>
+      <c r="HK10" s="52"/>
+      <c r="HL10" s="52"/>
+      <c r="HM10" s="52"/>
+      <c r="HN10" s="52"/>
+      <c r="HO10" s="52"/>
+      <c r="HP10" s="52"/>
+      <c r="HQ10" s="52"/>
+      <c r="HR10" s="52"/>
+      <c r="HS10" s="52"/>
+      <c r="HT10" s="52"/>
+      <c r="HU10" s="52"/>
+      <c r="HV10" s="52"/>
+      <c r="HW10" s="52"/>
+      <c r="HX10" s="52"/>
+      <c r="HY10" s="52"/>
+      <c r="HZ10" s="52"/>
+      <c r="IA10" s="52"/>
+      <c r="IB10" s="52"/>
+      <c r="IC10" s="52"/>
+      <c r="ID10" s="52"/>
+      <c r="IE10" s="52"/>
+      <c r="IF10" s="52"/>
+      <c r="IG10" s="52"/>
+      <c r="IH10" s="52"/>
+      <c r="II10" s="52"/>
+      <c r="IJ10" s="52"/>
+      <c r="IK10" s="52"/>
+      <c r="IL10" s="52"/>
+      <c r="IM10" s="52"/>
+      <c r="IN10" s="52"/>
+      <c r="IO10" s="52"/>
+      <c r="IP10" s="52"/>
+      <c r="IQ10" s="52"/>
+      <c r="IR10" s="52"/>
+      <c r="IS10" s="52"/>
+      <c r="IT10" s="52"/>
+      <c r="IU10" s="52"/>
+      <c r="IV10" s="52"/>
+      <c r="IW10" s="52"/>
+      <c r="IX10" s="52"/>
+      <c r="IY10" s="52"/>
+      <c r="IZ10" s="52"/>
+      <c r="JA10" s="52"/>
+      <c r="JB10" s="52"/>
+      <c r="JC10" s="52"/>
+      <c r="JD10" s="52"/>
+      <c r="JE10" s="52"/>
+      <c r="JF10" s="52"/>
+      <c r="JG10" s="52"/>
+      <c r="JH10" s="52"/>
+      <c r="JI10" s="52"/>
+      <c r="JJ10" s="52"/>
+      <c r="JK10" s="52"/>
+      <c r="JL10" s="52"/>
+      <c r="JM10" s="52"/>
+      <c r="JN10" s="52"/>
+      <c r="JO10" s="52"/>
+      <c r="JP10" s="52"/>
+      <c r="JQ10" s="52"/>
+      <c r="JR10" s="52"/>
+      <c r="JS10" s="52"/>
+      <c r="JT10" s="52"/>
+      <c r="JU10" s="52"/>
+      <c r="JV10" s="52"/>
+      <c r="JW10" s="52"/>
+      <c r="JX10" s="52"/>
+      <c r="JY10" s="52"/>
+      <c r="JZ10" s="52"/>
+      <c r="KA10" s="52"/>
+      <c r="KB10" s="52"/>
+      <c r="KC10" s="52"/>
+      <c r="KD10" s="52"/>
+      <c r="KE10" s="52"/>
+      <c r="KF10" s="52"/>
+      <c r="KG10" s="52"/>
+      <c r="KH10" s="52"/>
+      <c r="KI10" s="52"/>
+      <c r="KJ10" s="52"/>
+      <c r="KK10" s="52"/>
+      <c r="KL10" s="52"/>
+      <c r="KM10" s="52"/>
+      <c r="KN10" s="52"/>
+      <c r="KO10" s="52"/>
+      <c r="KP10" s="52"/>
+      <c r="KQ10" s="52"/>
+      <c r="KR10" s="52"/>
+      <c r="KS10" s="52"/>
+      <c r="KT10" s="52"/>
+      <c r="KU10" s="52"/>
+      <c r="KV10" s="52"/>
+      <c r="KW10" s="52"/>
+      <c r="KX10" s="52"/>
+      <c r="KY10" s="52"/>
+      <c r="KZ10" s="52"/>
+      <c r="LA10" s="52"/>
+      <c r="LB10" s="52"/>
+      <c r="LC10" s="52"/>
+      <c r="LD10" s="52"/>
+      <c r="LE10" s="52"/>
+      <c r="LF10" s="52"/>
+      <c r="LG10" s="52"/>
+      <c r="LH10" s="52"/>
+      <c r="LI10" s="52"/>
+      <c r="LJ10" s="52"/>
+      <c r="LK10" s="52"/>
+      <c r="LL10" s="52"/>
+      <c r="LM10" s="52"/>
+      <c r="LN10" s="52"/>
+      <c r="LO10" s="52"/>
+      <c r="LP10" s="52"/>
+      <c r="LQ10" s="52"/>
+      <c r="LR10" s="52"/>
+      <c r="LS10" s="52"/>
+      <c r="LT10" s="52"/>
+    </row>
+    <row r="11" spans="1:332" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="32">
+        <v>7</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="32">
+        <v>13</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="29">
-        <v>4</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="29">
-        <v>2</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="29"/>
+      <c r="H11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="52"/>
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="52"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="52"/>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="52"/>
+      <c r="BC11" s="52"/>
+      <c r="BD11" s="52"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52"/>
+      <c r="BG11" s="52"/>
+      <c r="BH11" s="52"/>
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="52"/>
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="52"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="52"/>
+      <c r="BO11" s="52"/>
+      <c r="BP11" s="52"/>
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="52"/>
+      <c r="BS11" s="52"/>
+      <c r="BT11" s="52"/>
+      <c r="BU11" s="52"/>
+      <c r="BV11" s="52"/>
+      <c r="BW11" s="52"/>
+      <c r="BX11" s="52"/>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="52"/>
+      <c r="CG11" s="52"/>
+      <c r="CH11" s="52"/>
+      <c r="CI11" s="52"/>
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="52"/>
+      <c r="CL11" s="52"/>
+      <c r="CM11" s="52"/>
+      <c r="CN11" s="52"/>
+      <c r="CO11" s="52"/>
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="52"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="52"/>
+      <c r="CT11" s="52"/>
+      <c r="CU11" s="52"/>
+      <c r="CV11" s="52"/>
+      <c r="CW11" s="52"/>
+      <c r="CX11" s="52"/>
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
+      <c r="DA11" s="52"/>
+      <c r="DB11" s="52"/>
+      <c r="DC11" s="52"/>
+      <c r="DD11" s="52"/>
+      <c r="DE11" s="52"/>
+      <c r="DF11" s="52"/>
+      <c r="DG11" s="52"/>
+      <c r="DH11" s="52"/>
+      <c r="DI11" s="52"/>
+      <c r="DJ11" s="52"/>
+      <c r="DK11" s="52"/>
+      <c r="DL11" s="52"/>
+      <c r="DM11" s="52"/>
+      <c r="DN11" s="52"/>
+      <c r="DO11" s="52"/>
+      <c r="DP11" s="52"/>
+      <c r="DQ11" s="52"/>
+      <c r="DR11" s="52"/>
+      <c r="DS11" s="52"/>
+      <c r="DT11" s="52"/>
+      <c r="DU11" s="52"/>
+      <c r="DV11" s="52"/>
+      <c r="DW11" s="52"/>
+      <c r="DX11" s="52"/>
+      <c r="DY11" s="52"/>
+      <c r="DZ11" s="52"/>
+      <c r="EA11" s="52"/>
+      <c r="EB11" s="52"/>
+      <c r="EC11" s="52"/>
+      <c r="ED11" s="52"/>
+      <c r="EE11" s="52"/>
+      <c r="EF11" s="52"/>
+      <c r="EG11" s="52"/>
+      <c r="EH11" s="52"/>
+      <c r="EI11" s="52"/>
+      <c r="EJ11" s="52"/>
+      <c r="EK11" s="52"/>
+      <c r="EL11" s="52"/>
+      <c r="EM11" s="52"/>
+      <c r="EN11" s="52"/>
+      <c r="EO11" s="52"/>
+      <c r="EP11" s="52"/>
+      <c r="EQ11" s="52"/>
+      <c r="ER11" s="52"/>
+      <c r="ES11" s="52"/>
+      <c r="ET11" s="52"/>
+      <c r="EU11" s="52"/>
+      <c r="EV11" s="52"/>
+      <c r="EW11" s="52"/>
+      <c r="EX11" s="52"/>
+      <c r="EY11" s="52"/>
+      <c r="EZ11" s="52"/>
+      <c r="FA11" s="52"/>
+      <c r="FB11" s="52"/>
+      <c r="FC11" s="52"/>
+      <c r="FD11" s="52"/>
+      <c r="FE11" s="52"/>
+      <c r="FF11" s="52"/>
+      <c r="FG11" s="52"/>
+      <c r="FH11" s="52"/>
+      <c r="FI11" s="52"/>
+      <c r="FJ11" s="52"/>
+      <c r="FK11" s="52"/>
+      <c r="FL11" s="52"/>
+      <c r="FM11" s="52"/>
+      <c r="FN11" s="52"/>
+      <c r="FO11" s="52"/>
+      <c r="FP11" s="52"/>
+      <c r="FQ11" s="52"/>
+      <c r="FR11" s="52"/>
+      <c r="FS11" s="52"/>
+      <c r="FT11" s="52"/>
+      <c r="FU11" s="52"/>
+      <c r="FV11" s="52"/>
+      <c r="FW11" s="52"/>
+      <c r="FX11" s="52"/>
+      <c r="FY11" s="52"/>
+      <c r="FZ11" s="52"/>
+      <c r="GA11" s="52"/>
+      <c r="GB11" s="52"/>
+      <c r="GC11" s="52"/>
+      <c r="GD11" s="52"/>
+      <c r="GE11" s="52"/>
+      <c r="GF11" s="52"/>
+      <c r="GG11" s="52"/>
+      <c r="GH11" s="52"/>
+      <c r="GI11" s="52"/>
+      <c r="GJ11" s="52"/>
+      <c r="GK11" s="52"/>
+      <c r="GL11" s="52"/>
+      <c r="GM11" s="52"/>
+      <c r="GN11" s="52"/>
+      <c r="GO11" s="52"/>
+      <c r="GP11" s="52"/>
+      <c r="GQ11" s="52"/>
+      <c r="GR11" s="52"/>
+      <c r="GS11" s="52"/>
+      <c r="GT11" s="52"/>
+      <c r="GU11" s="52"/>
+      <c r="GV11" s="52"/>
+      <c r="GW11" s="52"/>
+      <c r="GX11" s="52"/>
+      <c r="GY11" s="52"/>
+      <c r="GZ11" s="52"/>
+      <c r="HA11" s="52"/>
+      <c r="HB11" s="52"/>
+      <c r="HC11" s="52"/>
+      <c r="HD11" s="52"/>
+      <c r="HE11" s="52"/>
+      <c r="HF11" s="52"/>
+      <c r="HG11" s="52"/>
+      <c r="HH11" s="52"/>
+      <c r="HI11" s="52"/>
+      <c r="HJ11" s="52"/>
+      <c r="HK11" s="52"/>
+      <c r="HL11" s="52"/>
+      <c r="HM11" s="52"/>
+      <c r="HN11" s="52"/>
+      <c r="HO11" s="52"/>
+      <c r="HP11" s="52"/>
+      <c r="HQ11" s="52"/>
+      <c r="HR11" s="52"/>
+      <c r="HS11" s="52"/>
+      <c r="HT11" s="52"/>
+      <c r="HU11" s="52"/>
+      <c r="HV11" s="52"/>
+      <c r="HW11" s="52"/>
+      <c r="HX11" s="52"/>
+      <c r="HY11" s="52"/>
+      <c r="HZ11" s="52"/>
+      <c r="IA11" s="52"/>
+      <c r="IB11" s="52"/>
+      <c r="IC11" s="52"/>
+      <c r="ID11" s="52"/>
+      <c r="IE11" s="52"/>
+      <c r="IF11" s="52"/>
+      <c r="IG11" s="52"/>
+      <c r="IH11" s="52"/>
+      <c r="II11" s="52"/>
+      <c r="IJ11" s="52"/>
+      <c r="IK11" s="52"/>
+      <c r="IL11" s="52"/>
+      <c r="IM11" s="52"/>
+      <c r="IN11" s="52"/>
+      <c r="IO11" s="52"/>
+      <c r="IP11" s="52"/>
+      <c r="IQ11" s="52"/>
+      <c r="IR11" s="52"/>
+      <c r="IS11" s="52"/>
+      <c r="IT11" s="52"/>
+      <c r="IU11" s="52"/>
+      <c r="IV11" s="52"/>
+      <c r="IW11" s="52"/>
+      <c r="IX11" s="52"/>
+      <c r="IY11" s="52"/>
+      <c r="IZ11" s="52"/>
+      <c r="JA11" s="52"/>
+      <c r="JB11" s="52"/>
+      <c r="JC11" s="52"/>
+      <c r="JD11" s="52"/>
+      <c r="JE11" s="52"/>
+      <c r="JF11" s="52"/>
+      <c r="JG11" s="52"/>
+      <c r="JH11" s="52"/>
+      <c r="JI11" s="52"/>
+      <c r="JJ11" s="52"/>
+      <c r="JK11" s="52"/>
+      <c r="JL11" s="52"/>
+      <c r="JM11" s="52"/>
+      <c r="JN11" s="52"/>
+      <c r="JO11" s="52"/>
+      <c r="JP11" s="52"/>
+      <c r="JQ11" s="52"/>
+      <c r="JR11" s="52"/>
+      <c r="JS11" s="52"/>
+      <c r="JT11" s="52"/>
+      <c r="JU11" s="52"/>
+      <c r="JV11" s="52"/>
+      <c r="JW11" s="52"/>
+      <c r="JX11" s="52"/>
+      <c r="JY11" s="52"/>
+      <c r="JZ11" s="52"/>
+      <c r="KA11" s="52"/>
+      <c r="KB11" s="52"/>
+      <c r="KC11" s="52"/>
+      <c r="KD11" s="52"/>
+      <c r="KE11" s="52"/>
+      <c r="KF11" s="52"/>
+      <c r="KG11" s="52"/>
+      <c r="KH11" s="52"/>
+      <c r="KI11" s="52"/>
+      <c r="KJ11" s="52"/>
+      <c r="KK11" s="52"/>
+      <c r="KL11" s="52"/>
+      <c r="KM11" s="52"/>
+      <c r="KN11" s="52"/>
+      <c r="KO11" s="52"/>
+      <c r="KP11" s="52"/>
+      <c r="KQ11" s="52"/>
+      <c r="KR11" s="52"/>
+      <c r="KS11" s="52"/>
+      <c r="KT11" s="52"/>
+      <c r="KU11" s="52"/>
+      <c r="KV11" s="52"/>
+      <c r="KW11" s="52"/>
+      <c r="KX11" s="52"/>
+      <c r="KY11" s="52"/>
+      <c r="KZ11" s="52"/>
+      <c r="LA11" s="52"/>
+      <c r="LB11" s="52"/>
+      <c r="LC11" s="52"/>
+      <c r="LD11" s="52"/>
+      <c r="LE11" s="52"/>
+      <c r="LF11" s="52"/>
+      <c r="LG11" s="52"/>
+      <c r="LH11" s="52"/>
+      <c r="LI11" s="52"/>
+      <c r="LJ11" s="52"/>
+      <c r="LK11" s="52"/>
+      <c r="LL11" s="52"/>
+      <c r="LM11" s="52"/>
+      <c r="LN11" s="52"/>
+      <c r="LO11" s="52"/>
+      <c r="LP11" s="52"/>
+      <c r="LQ11" s="52"/>
+      <c r="LR11" s="52"/>
+      <c r="LS11" s="52"/>
+      <c r="LT11" s="52"/>
+    </row>
+    <row r="12" spans="1:332" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="28">
+        <v>6</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="28">
+        <v>14</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="29">
-        <v>6</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>12</v>
-      </c>
+      <c r="H12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="52"/>
+      <c r="BU12" s="52"/>
+      <c r="BV12" s="52"/>
+      <c r="BW12" s="52"/>
+      <c r="BX12" s="52"/>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="52"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="52"/>
+      <c r="CG12" s="52"/>
+      <c r="CH12" s="52"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="52"/>
+      <c r="CK12" s="52"/>
+      <c r="CL12" s="52"/>
+      <c r="CM12" s="52"/>
+      <c r="CN12" s="52"/>
+      <c r="CO12" s="52"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="52"/>
+      <c r="CT12" s="52"/>
+      <c r="CU12" s="52"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
+      <c r="DA12" s="52"/>
+      <c r="DB12" s="52"/>
+      <c r="DC12" s="52"/>
+      <c r="DD12" s="52"/>
+      <c r="DE12" s="52"/>
+      <c r="DF12" s="52"/>
+      <c r="DG12" s="52"/>
+      <c r="DH12" s="52"/>
+      <c r="DI12" s="52"/>
+      <c r="DJ12" s="52"/>
+      <c r="DK12" s="52"/>
+      <c r="DL12" s="52"/>
+      <c r="DM12" s="52"/>
+      <c r="DN12" s="52"/>
+      <c r="DO12" s="52"/>
+      <c r="DP12" s="52"/>
+      <c r="DQ12" s="52"/>
+      <c r="DR12" s="52"/>
+      <c r="DS12" s="52"/>
+      <c r="DT12" s="52"/>
+      <c r="DU12" s="52"/>
+      <c r="DV12" s="52"/>
+      <c r="DW12" s="52"/>
+      <c r="DX12" s="52"/>
+      <c r="DY12" s="52"/>
+      <c r="DZ12" s="52"/>
+      <c r="EA12" s="52"/>
+      <c r="EB12" s="52"/>
+      <c r="EC12" s="52"/>
+      <c r="ED12" s="52"/>
+      <c r="EE12" s="52"/>
+      <c r="EF12" s="52"/>
+      <c r="EG12" s="52"/>
+      <c r="EH12" s="52"/>
+      <c r="EI12" s="52"/>
+      <c r="EJ12" s="52"/>
+      <c r="EK12" s="52"/>
+      <c r="EL12" s="52"/>
+      <c r="EM12" s="52"/>
+      <c r="EN12" s="52"/>
+      <c r="EO12" s="52"/>
+      <c r="EP12" s="52"/>
+      <c r="EQ12" s="52"/>
+      <c r="ER12" s="52"/>
+      <c r="ES12" s="52"/>
+      <c r="ET12" s="52"/>
+      <c r="EU12" s="52"/>
+      <c r="EV12" s="52"/>
+      <c r="EW12" s="52"/>
+      <c r="EX12" s="52"/>
+      <c r="EY12" s="52"/>
+      <c r="EZ12" s="52"/>
+      <c r="FA12" s="52"/>
+      <c r="FB12" s="52"/>
+      <c r="FC12" s="52"/>
+      <c r="FD12" s="52"/>
+      <c r="FE12" s="52"/>
+      <c r="FF12" s="52"/>
+      <c r="FG12" s="52"/>
+      <c r="FH12" s="52"/>
+      <c r="FI12" s="52"/>
+      <c r="FJ12" s="52"/>
+      <c r="FK12" s="52"/>
+      <c r="FL12" s="52"/>
+      <c r="FM12" s="52"/>
+      <c r="FN12" s="52"/>
+      <c r="FO12" s="52"/>
+      <c r="FP12" s="52"/>
+      <c r="FQ12" s="52"/>
+      <c r="FR12" s="52"/>
+      <c r="FS12" s="52"/>
+      <c r="FT12" s="52"/>
+      <c r="FU12" s="52"/>
+      <c r="FV12" s="52"/>
+      <c r="FW12" s="52"/>
+      <c r="FX12" s="52"/>
+      <c r="FY12" s="52"/>
+      <c r="FZ12" s="52"/>
+      <c r="GA12" s="52"/>
+      <c r="GB12" s="52"/>
+      <c r="GC12" s="52"/>
+      <c r="GD12" s="52"/>
+      <c r="GE12" s="52"/>
+      <c r="GF12" s="52"/>
+      <c r="GG12" s="52"/>
+      <c r="GH12" s="52"/>
+      <c r="GI12" s="52"/>
+      <c r="GJ12" s="52"/>
+      <c r="GK12" s="52"/>
+      <c r="GL12" s="52"/>
+      <c r="GM12" s="52"/>
+      <c r="GN12" s="52"/>
+      <c r="GO12" s="52"/>
+      <c r="GP12" s="52"/>
+      <c r="GQ12" s="52"/>
+      <c r="GR12" s="52"/>
+      <c r="GS12" s="52"/>
+      <c r="GT12" s="52"/>
+      <c r="GU12" s="52"/>
+      <c r="GV12" s="52"/>
+      <c r="GW12" s="52"/>
+      <c r="GX12" s="52"/>
+      <c r="GY12" s="52"/>
+      <c r="GZ12" s="52"/>
+      <c r="HA12" s="52"/>
+      <c r="HB12" s="52"/>
+      <c r="HC12" s="52"/>
+      <c r="HD12" s="52"/>
+      <c r="HE12" s="52"/>
+      <c r="HF12" s="52"/>
+      <c r="HG12" s="52"/>
+      <c r="HH12" s="52"/>
+      <c r="HI12" s="52"/>
+      <c r="HJ12" s="52"/>
+      <c r="HK12" s="52"/>
+      <c r="HL12" s="52"/>
+      <c r="HM12" s="52"/>
+      <c r="HN12" s="52"/>
+      <c r="HO12" s="52"/>
+      <c r="HP12" s="52"/>
+      <c r="HQ12" s="52"/>
+      <c r="HR12" s="52"/>
+      <c r="HS12" s="52"/>
+      <c r="HT12" s="52"/>
+      <c r="HU12" s="52"/>
+      <c r="HV12" s="52"/>
+      <c r="HW12" s="52"/>
+      <c r="HX12" s="52"/>
+      <c r="HY12" s="52"/>
+      <c r="HZ12" s="52"/>
+      <c r="IA12" s="52"/>
+      <c r="IB12" s="52"/>
+      <c r="IC12" s="52"/>
+      <c r="ID12" s="52"/>
+      <c r="IE12" s="52"/>
+      <c r="IF12" s="52"/>
+      <c r="IG12" s="52"/>
+      <c r="IH12" s="52"/>
+      <c r="II12" s="52"/>
+      <c r="IJ12" s="52"/>
+      <c r="IK12" s="52"/>
+      <c r="IL12" s="52"/>
+      <c r="IM12" s="52"/>
+      <c r="IN12" s="52"/>
+      <c r="IO12" s="52"/>
+      <c r="IP12" s="52"/>
+      <c r="IQ12" s="52"/>
+      <c r="IR12" s="52"/>
+      <c r="IS12" s="52"/>
+      <c r="IT12" s="52"/>
+      <c r="IU12" s="52"/>
+      <c r="IV12" s="52"/>
+      <c r="IW12" s="52"/>
+      <c r="IX12" s="52"/>
+      <c r="IY12" s="52"/>
+      <c r="IZ12" s="52"/>
+      <c r="JA12" s="52"/>
+      <c r="JB12" s="52"/>
+      <c r="JC12" s="52"/>
+      <c r="JD12" s="52"/>
+      <c r="JE12" s="52"/>
+      <c r="JF12" s="52"/>
+      <c r="JG12" s="52"/>
+      <c r="JH12" s="52"/>
+      <c r="JI12" s="52"/>
+      <c r="JJ12" s="52"/>
+      <c r="JK12" s="52"/>
+      <c r="JL12" s="52"/>
+      <c r="JM12" s="52"/>
+      <c r="JN12" s="52"/>
+      <c r="JO12" s="52"/>
+      <c r="JP12" s="52"/>
+      <c r="JQ12" s="52"/>
+      <c r="JR12" s="52"/>
+      <c r="JS12" s="52"/>
+      <c r="JT12" s="52"/>
+      <c r="JU12" s="52"/>
+      <c r="JV12" s="52"/>
+      <c r="JW12" s="52"/>
+      <c r="JX12" s="52"/>
+      <c r="JY12" s="52"/>
+      <c r="JZ12" s="52"/>
+      <c r="KA12" s="52"/>
+      <c r="KB12" s="52"/>
+      <c r="KC12" s="52"/>
+      <c r="KD12" s="52"/>
+      <c r="KE12" s="52"/>
+      <c r="KF12" s="52"/>
+      <c r="KG12" s="52"/>
+      <c r="KH12" s="52"/>
+      <c r="KI12" s="52"/>
+      <c r="KJ12" s="52"/>
+      <c r="KK12" s="52"/>
+      <c r="KL12" s="52"/>
+      <c r="KM12" s="52"/>
+      <c r="KN12" s="52"/>
+      <c r="KO12" s="52"/>
+      <c r="KP12" s="52"/>
+      <c r="KQ12" s="52"/>
+      <c r="KR12" s="52"/>
+      <c r="KS12" s="52"/>
+      <c r="KT12" s="52"/>
+      <c r="KU12" s="52"/>
+      <c r="KV12" s="52"/>
+      <c r="KW12" s="52"/>
+      <c r="KX12" s="52"/>
+      <c r="KY12" s="52"/>
+      <c r="KZ12" s="52"/>
+      <c r="LA12" s="52"/>
+      <c r="LB12" s="52"/>
+      <c r="LC12" s="52"/>
+      <c r="LD12" s="52"/>
+      <c r="LE12" s="52"/>
+      <c r="LF12" s="52"/>
+      <c r="LG12" s="52"/>
+      <c r="LH12" s="52"/>
+      <c r="LI12" s="52"/>
+      <c r="LJ12" s="52"/>
+      <c r="LK12" s="52"/>
+      <c r="LL12" s="52"/>
+      <c r="LM12" s="52"/>
+      <c r="LN12" s="52"/>
+      <c r="LO12" s="52"/>
+      <c r="LP12" s="52"/>
+      <c r="LQ12" s="52"/>
+      <c r="LR12" s="52"/>
+      <c r="LS12" s="52"/>
+      <c r="LT12" s="52"/>
+    </row>
+    <row r="13" spans="1:332" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="28">
+        <v>2</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="52"/>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52"/>
+      <c r="AV13" s="52"/>
+      <c r="AW13" s="52"/>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
+      <c r="BA13" s="52"/>
+      <c r="BB13" s="52"/>
+      <c r="BC13" s="52"/>
+      <c r="BD13" s="52"/>
+      <c r="BE13" s="52"/>
+      <c r="BF13" s="52"/>
+      <c r="BG13" s="52"/>
+      <c r="BH13" s="52"/>
+      <c r="BI13" s="52"/>
+      <c r="BJ13" s="52"/>
+      <c r="BK13" s="52"/>
+      <c r="BL13" s="52"/>
+      <c r="BM13" s="52"/>
+      <c r="BN13" s="52"/>
+      <c r="BO13" s="52"/>
+      <c r="BP13" s="52"/>
+      <c r="BQ13" s="52"/>
+      <c r="BR13" s="52"/>
+      <c r="BS13" s="52"/>
+      <c r="BT13" s="52"/>
+      <c r="BU13" s="52"/>
+      <c r="BV13" s="52"/>
+      <c r="BW13" s="52"/>
+      <c r="BX13" s="52"/>
+      <c r="BY13" s="52"/>
+      <c r="BZ13" s="52"/>
+      <c r="CA13" s="52"/>
+      <c r="CB13" s="52"/>
+      <c r="CC13" s="52"/>
+      <c r="CD13" s="52"/>
+      <c r="CE13" s="52"/>
+      <c r="CF13" s="52"/>
+      <c r="CG13" s="52"/>
+      <c r="CH13" s="52"/>
+      <c r="CI13" s="52"/>
+      <c r="CJ13" s="52"/>
+      <c r="CK13" s="52"/>
+      <c r="CL13" s="52"/>
+      <c r="CM13" s="52"/>
+      <c r="CN13" s="52"/>
+      <c r="CO13" s="52"/>
+      <c r="CP13" s="52"/>
+      <c r="CQ13" s="52"/>
+      <c r="CR13" s="52"/>
+      <c r="CS13" s="52"/>
+      <c r="CT13" s="52"/>
+      <c r="CU13" s="52"/>
+      <c r="CV13" s="52"/>
+      <c r="CW13" s="52"/>
+      <c r="CX13" s="52"/>
+      <c r="CY13" s="52"/>
+      <c r="CZ13" s="52"/>
+      <c r="DA13" s="52"/>
+      <c r="DB13" s="52"/>
+      <c r="DC13" s="52"/>
+      <c r="DD13" s="52"/>
+      <c r="DE13" s="52"/>
+      <c r="DF13" s="52"/>
+      <c r="DG13" s="52"/>
+      <c r="DH13" s="52"/>
+      <c r="DI13" s="52"/>
+      <c r="DJ13" s="52"/>
+      <c r="DK13" s="52"/>
+      <c r="DL13" s="52"/>
+      <c r="DM13" s="52"/>
+      <c r="DN13" s="52"/>
+      <c r="DO13" s="52"/>
+      <c r="DP13" s="52"/>
+      <c r="DQ13" s="52"/>
+      <c r="DR13" s="52"/>
+      <c r="DS13" s="52"/>
+      <c r="DT13" s="52"/>
+      <c r="DU13" s="52"/>
+      <c r="DV13" s="52"/>
+      <c r="DW13" s="52"/>
+      <c r="DX13" s="52"/>
+      <c r="DY13" s="52"/>
+      <c r="DZ13" s="52"/>
+      <c r="EA13" s="52"/>
+      <c r="EB13" s="52"/>
+      <c r="EC13" s="52"/>
+      <c r="ED13" s="52"/>
+      <c r="EE13" s="52"/>
+      <c r="EF13" s="52"/>
+      <c r="EG13" s="52"/>
+      <c r="EH13" s="52"/>
+      <c r="EI13" s="52"/>
+      <c r="EJ13" s="52"/>
+      <c r="EK13" s="52"/>
+      <c r="EL13" s="52"/>
+      <c r="EM13" s="52"/>
+      <c r="EN13" s="52"/>
+      <c r="EO13" s="52"/>
+      <c r="EP13" s="52"/>
+      <c r="EQ13" s="52"/>
+      <c r="ER13" s="52"/>
+      <c r="ES13" s="52"/>
+      <c r="ET13" s="52"/>
+      <c r="EU13" s="52"/>
+      <c r="EV13" s="52"/>
+      <c r="EW13" s="52"/>
+      <c r="EX13" s="52"/>
+      <c r="EY13" s="52"/>
+      <c r="EZ13" s="52"/>
+      <c r="FA13" s="52"/>
+      <c r="FB13" s="52"/>
+      <c r="FC13" s="52"/>
+      <c r="FD13" s="52"/>
+      <c r="FE13" s="52"/>
+      <c r="FF13" s="52"/>
+      <c r="FG13" s="52"/>
+      <c r="FH13" s="52"/>
+      <c r="FI13" s="52"/>
+      <c r="FJ13" s="52"/>
+      <c r="FK13" s="52"/>
+      <c r="FL13" s="52"/>
+      <c r="FM13" s="52"/>
+      <c r="FN13" s="52"/>
+      <c r="FO13" s="52"/>
+      <c r="FP13" s="52"/>
+      <c r="FQ13" s="52"/>
+      <c r="FR13" s="52"/>
+      <c r="FS13" s="52"/>
+      <c r="FT13" s="52"/>
+      <c r="FU13" s="52"/>
+      <c r="FV13" s="52"/>
+      <c r="FW13" s="52"/>
+      <c r="FX13" s="52"/>
+      <c r="FY13" s="52"/>
+      <c r="FZ13" s="52"/>
+      <c r="GA13" s="52"/>
+      <c r="GB13" s="52"/>
+      <c r="GC13" s="52"/>
+      <c r="GD13" s="52"/>
+      <c r="GE13" s="52"/>
+      <c r="GF13" s="52"/>
+      <c r="GG13" s="52"/>
+      <c r="GH13" s="52"/>
+      <c r="GI13" s="52"/>
+      <c r="GJ13" s="52"/>
+      <c r="GK13" s="52"/>
+      <c r="GL13" s="52"/>
+      <c r="GM13" s="52"/>
+      <c r="GN13" s="52"/>
+      <c r="GO13" s="52"/>
+      <c r="GP13" s="52"/>
+      <c r="GQ13" s="52"/>
+      <c r="GR13" s="52"/>
+      <c r="GS13" s="52"/>
+      <c r="GT13" s="52"/>
+      <c r="GU13" s="52"/>
+      <c r="GV13" s="52"/>
+      <c r="GW13" s="52"/>
+      <c r="GX13" s="52"/>
+      <c r="GY13" s="52"/>
+      <c r="GZ13" s="52"/>
+      <c r="HA13" s="52"/>
+      <c r="HB13" s="52"/>
+      <c r="HC13" s="52"/>
+      <c r="HD13" s="52"/>
+      <c r="HE13" s="52"/>
+      <c r="HF13" s="52"/>
+      <c r="HG13" s="52"/>
+      <c r="HH13" s="52"/>
+      <c r="HI13" s="52"/>
+      <c r="HJ13" s="52"/>
+      <c r="HK13" s="52"/>
+      <c r="HL13" s="52"/>
+      <c r="HM13" s="52"/>
+      <c r="HN13" s="52"/>
+      <c r="HO13" s="52"/>
+      <c r="HP13" s="52"/>
+      <c r="HQ13" s="52"/>
+      <c r="HR13" s="52"/>
+      <c r="HS13" s="52"/>
+      <c r="HT13" s="52"/>
+      <c r="HU13" s="52"/>
+      <c r="HV13" s="52"/>
+      <c r="HW13" s="52"/>
+      <c r="HX13" s="52"/>
+      <c r="HY13" s="52"/>
+      <c r="HZ13" s="52"/>
+      <c r="IA13" s="52"/>
+      <c r="IB13" s="52"/>
+      <c r="IC13" s="52"/>
+      <c r="ID13" s="52"/>
+      <c r="IE13" s="52"/>
+      <c r="IF13" s="52"/>
+      <c r="IG13" s="52"/>
+      <c r="IH13" s="52"/>
+      <c r="II13" s="52"/>
+      <c r="IJ13" s="52"/>
+      <c r="IK13" s="52"/>
+      <c r="IL13" s="52"/>
+      <c r="IM13" s="52"/>
+      <c r="IN13" s="52"/>
+      <c r="IO13" s="52"/>
+      <c r="IP13" s="52"/>
+      <c r="IQ13" s="52"/>
+      <c r="IR13" s="52"/>
+      <c r="IS13" s="52"/>
+      <c r="IT13" s="52"/>
+      <c r="IU13" s="52"/>
+      <c r="IV13" s="52"/>
+      <c r="IW13" s="52"/>
+      <c r="IX13" s="52"/>
+      <c r="IY13" s="52"/>
+      <c r="IZ13" s="52"/>
+      <c r="JA13" s="52"/>
+      <c r="JB13" s="52"/>
+      <c r="JC13" s="52"/>
+      <c r="JD13" s="52"/>
+      <c r="JE13" s="52"/>
+      <c r="JF13" s="52"/>
+      <c r="JG13" s="52"/>
+      <c r="JH13" s="52"/>
+      <c r="JI13" s="52"/>
+      <c r="JJ13" s="52"/>
+      <c r="JK13" s="52"/>
+      <c r="JL13" s="52"/>
+      <c r="JM13" s="52"/>
+      <c r="JN13" s="52"/>
+      <c r="JO13" s="52"/>
+      <c r="JP13" s="52"/>
+      <c r="JQ13" s="52"/>
+      <c r="JR13" s="52"/>
+      <c r="JS13" s="52"/>
+      <c r="JT13" s="52"/>
+      <c r="JU13" s="52"/>
+      <c r="JV13" s="52"/>
+      <c r="JW13" s="52"/>
+      <c r="JX13" s="52"/>
+      <c r="JY13" s="52"/>
+      <c r="JZ13" s="52"/>
+      <c r="KA13" s="52"/>
+      <c r="KB13" s="52"/>
+      <c r="KC13" s="52"/>
+      <c r="KD13" s="52"/>
+      <c r="KE13" s="52"/>
+      <c r="KF13" s="52"/>
+      <c r="KG13" s="52"/>
+      <c r="KH13" s="52"/>
+      <c r="KI13" s="52"/>
+      <c r="KJ13" s="52"/>
+      <c r="KK13" s="52"/>
+      <c r="KL13" s="52"/>
+      <c r="KM13" s="52"/>
+      <c r="KN13" s="52"/>
+      <c r="KO13" s="52"/>
+      <c r="KP13" s="52"/>
+      <c r="KQ13" s="52"/>
+      <c r="KR13" s="52"/>
+      <c r="KS13" s="52"/>
+      <c r="KT13" s="52"/>
+      <c r="KU13" s="52"/>
+      <c r="KV13" s="52"/>
+      <c r="KW13" s="52"/>
+      <c r="KX13" s="52"/>
+      <c r="KY13" s="52"/>
+      <c r="KZ13" s="52"/>
+      <c r="LA13" s="52"/>
+      <c r="LB13" s="52"/>
+      <c r="LC13" s="52"/>
+      <c r="LD13" s="52"/>
+      <c r="LE13" s="52"/>
+      <c r="LF13" s="52"/>
+      <c r="LG13" s="52"/>
+      <c r="LH13" s="52"/>
+      <c r="LI13" s="52"/>
+      <c r="LJ13" s="52"/>
+      <c r="LK13" s="52"/>
+      <c r="LL13" s="52"/>
+      <c r="LM13" s="52"/>
+      <c r="LN13" s="52"/>
+      <c r="LO13" s="52"/>
+      <c r="LP13" s="52"/>
+      <c r="LQ13" s="52"/>
+      <c r="LR13" s="52"/>
+      <c r="LS13" s="52"/>
+      <c r="LT13" s="52"/>
+    </row>
+    <row r="14" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" s="29">
-        <v>7</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+        <v>0</v>
+      </c>
       <c r="E14" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="29">
-        <v>0</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+        <v>3</v>
+      </c>
       <c r="E15" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="29"/>
+        <v>11</v>
+      </c>
       <c r="G15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:332" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="29">
-        <v>3</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29" t="s">
+      <c r="B16" s="33">
+        <v>5</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>55</v>
-      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33" t="s">
@@ -1587,7 +5987,7 @@
       <c r="H17" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
@@ -1596,12 +5996,9 @@
       <c r="B18" s="29">
         <v>6</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
       <c r="E18" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +6006,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
@@ -1619,34 +6016,35 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>46</v>
-      </c>
+      <c r="H19" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="29">
-        <v>1</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="29"/>
+        <v>25</v>
+      </c>
       <c r="G20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1654,19 +6052,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="29">
-        <v>2</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>23</v>
+      </c>
       <c r="E21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="29"/>
+        <v>24</v>
+      </c>
       <c r="G21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1674,25 +6072,56 @@
         <v>13</v>
       </c>
       <c r="B22" s="29">
-        <v>3</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+        <v>1</v>
+      </c>
       <c r="E22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="29"/>
       <c r="G22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="29">
+        <v>2</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="29">
+        <v>3</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H24" s="34" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I18">
-    <sortState ref="A2:I22">
-      <sortCondition ref="D1:D18"/>
+  <autoFilter ref="A1:I20">
+    <sortState ref="A2:I23">
+      <sortCondition ref="A1:A19"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1704,8 +6133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +6189,7 @@
       <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1772,15 +6201,15 @@
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -1810,7 +6239,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="41"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1828,7 +6257,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="41"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -1840,7 +6269,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1856,7 +6285,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1874,7 +6303,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="41"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -1886,7 +6315,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1902,7 +6331,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="41"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1920,7 +6349,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="41"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1932,7 +6361,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="41"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
@@ -1948,7 +6377,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="41"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1966,7 +6395,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="41"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1978,7 +6407,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="41"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1994,7 +6423,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="41"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2012,7 +6441,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="41"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -2024,7 +6453,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="41"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -2040,7 +6469,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="41"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -2058,7 +6487,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="41"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
@@ -2070,7 +6499,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="41"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -2086,7 +6515,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="41" t="s">
+      <c r="J25" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2118,21 +6547,21 @@
       <c r="I26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="41"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -2148,7 +6577,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="39" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2180,21 +6609,21 @@
       <c r="I29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="41"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="41"/>
+      <c r="J30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2433,242 +6862,242 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="47" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="5.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>7</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>8</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>10</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>12</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="49" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>13</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="49" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>14</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>15</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="49" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="48" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>16</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2710,53 +7139,149 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="67" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="63" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="58"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="58"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="70"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>